--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -468,68 +468,68 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
@@ -570,153 +570,459 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Food and Agriculture Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>European Union consisting of 27 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Developmen</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Ministry for Economic Cooperation and Developmen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t>Federal Office for Agriculture and Food</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>SDGs</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Sustainable Development Goals</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Body Mass Index</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Body Mass Index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>kg/m²</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Kilogramm pro Quadratmeter</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Kilogram per square meter</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>P90</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>90. Perzentil</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>90th percentile</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>P97</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>97. Perzentil</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>97th percentile</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>RKI</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institute</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>KiGGS</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Study on the health of children and adolescents in Germany</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>SES</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Sozioökonomischer Status</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Socioeconomic status</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>WHO</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation (World Health Organization)</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>SO₂</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Schwefeldioxid</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Sulphur dioxide</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>NOₓ</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffoxid</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen oxides</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>NH₃</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Ammoniak</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>NMVOC</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>non-methane volatile organic compounds</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>PM₂,₅</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Feinstaub</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Particulate matter</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>CLRTAP</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>National Emission Ceilings Directive</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>PM₂.₅</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Feinstaub</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Particulate matter</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>NMVOCs</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -468,561 +468,1224 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>z. B.</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>zum Beispiel</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>WHO</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t>Weltgesundheitsorganisation (World Health Organization)</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>World Health Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>u.a.</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>u. a.</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>SO₂</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Schwefeldioxid</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>Sulphur dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t>Sozioökonomischer Status</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>SDGs</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>RKI</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>Robert Koch-Institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>PM₂.₅</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>PM₂,₅</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>PM₁₀</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>PM₀.₁</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Developmen</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>PM₀,₁</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>P97</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>97. Perzentil</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>97th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>SDGs</t>
+          <t>P90</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>90. Perzentil</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>90th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>90. Perzentil</t>
+          <t>Stickstoffoxid</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>90th percentile</t>
+          <t>Nitrogen oxides</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>P97</t>
+          <t>NMVOCs</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>97. Perzentil</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>97th percentile</t>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>RKI</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institute</t>
+          <t>non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t>Ammoniak</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t>Ammonia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>SES</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Sozioökonomischer Status</t>
+          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>National Emission Ceilings Directive</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>WHO</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (World Health Organization)</t>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>SO₂</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Schwefeldioxid</t>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Sulphur dioxide</t>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffoxid</t>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen oxides</t>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Ammoniak</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>non-methane volatile organic compounds</t>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>PM₂,₅</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+          <t>Hektar</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive</t>
+          <t>Food and Agriculture Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>PM₂.₅</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter</t>
+          <t>Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>NMVOCs</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds</t>
+          <t>European Union consisting of 28 member states</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>EU-27</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>European Union consisting of 27 member states</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Union</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>European Union</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>COVID-19</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Coronavirus SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Coronavirus SARS-CoV-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>CLRTAP</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>bzw.</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>beziehungsweise</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>BMZ</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Cooperation and Developmen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Body Mass Index</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Body Mass Index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>BMEL</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>BLE</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Federal Office for Agriculture and Food</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>µg/m³</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm pro Kubikmeter</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms per cubic metre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>µg</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>gender pay gap</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Geschlechtsspezifischen Verdienstabstand</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>GPG</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>gender pay gap</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Gesellschaft</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Women on Board</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Women on Board</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>FidAR</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>ISCO</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>BEEG</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>KfW</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>GIZ</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>GmbH</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft mit beschränkter Haftung</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Company with limited liability</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>LAWA</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>mg/l</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Milligramm pro Liter</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Miligrams per litre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>EUA</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Umweltagentur</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>EEA</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>European Environment Agency</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Milligramm</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Miligrams</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>for example (exempli gratia)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>AGEB</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Energy Balance Association</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>usw.</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>und so weiter</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>etc.</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>und so weiter (et cetera)</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>and so on (et cetera)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>AGEE-Stat</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>EEG</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Erneuerbare-Energien-Gesetz</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Renewable Energy Sources Act</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>TWh</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Terawattstunde</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>Terawatt hour</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>BIP</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>ESA</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>European System of National and Regional Accounts</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>ESVG</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>VGR</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -485,46 +485,46 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>WHO</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (World Health Organization)</t>
+          <t>Women on Board</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Women on Board</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>u.a.</t>
+          <t>WHO</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Weltgesundheitsorganisation (World Health Organization)</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>World Health Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>u. a.</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -536,908 +536,908 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>SO₂</t>
+          <t>usw.</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Schwefeldioxid</t>
+          <t>und so weiter</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Sulphur dioxide</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>SES</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Sozioökonomischer Status</t>
+          <t>US-Dollar</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>United States dollar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>SDGs</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Vereinigte Staaten von Amerika (United States of America)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>United States of America</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Vereinigte Staaten von Amerika (United States)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>RKI</t>
+          <t>UNFCCC</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t/>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institute</t>
+          <t>United Nations Framework Convention on Climate Change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>PM₂.₅</t>
+          <t>UNCCD</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>PM₂,₅</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Vereinigtes Königreich (United Kingdom)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>PM₁₀</t>
+          <t>UBA</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
+          <t>Federal Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>PM₀.₁</t>
+          <t>u.a.</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>PM₀,₁</t>
+          <t>u. a.</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>P97</t>
+          <t>TWh</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>97. Perzentil</t>
+          <t>Terawattstunde</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>97th percentile</t>
+          <t>Terawatt hour</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>90. Perzentil</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>90th percentile</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>TKU</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t>Telekommunikationsunternehmen</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Telecommunications companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>SOEP</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t>Sozio-oekonomischen Panel</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t>Socio-Economic Panel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>SO₂</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffoxid</t>
+          <t>Schwefeldioxid</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen oxides</t>
+          <t>Sulphur dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>NMVOCs</t>
+          <t>SMEs</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t/>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds</t>
+          <t>Small and medium-sized enterprises</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>SF₆</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t/>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>non-methane volatile organic compounds</t>
+          <t>Sulphur hexafluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Ammoniak</t>
+          <t>Sozioökonomischer Status</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+          <t>Europäische Gesellschaft</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>SDGs</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Kubikmeter</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Cubic metre</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>SALW</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t/>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t>Small arms and light weapons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>RKI</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Robert Koch-Institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>REDD</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>ISCED</t>
+          <t>R&amp;D</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t/>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>Research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>PM₂.₅</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>PM₂,₅</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>PM₁₀</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>PM₀.₁</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>PM₀,₁</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>PKS</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Polizeilichen Kriminalstatistik</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Police Crime Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>PINETI</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>PFCs</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+          <t/>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Perfluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>P97</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>97. Perzentil</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>97th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>P90</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>90. Perzentil</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Developmen</t>
+          <t>90th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Stickstoffoxid</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Nitrogen oxides</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>NMVOCs</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Micrograms</t>
+          <t>non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand</t>
+          <t>Ammoniak</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ammonia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>GPG</t>
+          <t>NF₃</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+          <t>Stickstofftrifluorid</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>Nitrogen trifluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Europäische Gesellschaft</t>
+          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>National Emission Ceilings Directive</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>N₂O</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Women on Board</t>
+          <t>Lachgas</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Women on Board</t>
+          <t>Nitrous oxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t/>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrogen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>ISCO</t>
+          <t>MSY</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations</t>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>Mrd.</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Milliarde</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>KfW</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Miligrams per litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>mg</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>Milligramm</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>Miligrams</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>GmbH</t>
+          <t>Mbps</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft mit beschränkter Haftung</t>
+          <t/>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Company with limited liability</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>LAWA</t>
+          <t>Mbit/s</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+          <t>Megabit pro Sekunde</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Quadratmeter</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>LULUCF</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -1447,172 +1447,172 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>LDCs</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Milligramm</t>
+          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Miligrams</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>LDC</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>LAWA</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Liter</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>usw.</t>
+          <t>km²</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>und so weiter</t>
+          <t>Quadratkilometer</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Square kilometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>TWh</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Terawattstunde</t>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Terawatt hour</t>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>Kfz</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Kraftfahrzeug</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -1624,68 +1624,1139 @@
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>KfW</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>ISCO</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>International Standard Classification of Occupations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
+          <t/>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>that is to say (id est)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>H-FKW/HFC</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>HFCs</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Hydrofluorocarbons</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>ha</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Hektar</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Hectare</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>GPG</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>gender pay gap</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>GNI</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>Gross national income</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>GmbH</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft mit beschränkter Haftung</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Company with limited liability</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>GIZ</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>gGmbH</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>Non-profit limited liability company</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Grundgesetz</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>Basic Law</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>gender pay gap</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Geschlechtsspezifischen Verdienstabstand</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>FuE</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>Forschung und Entwicklung</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>FTTB/H</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>Reine Glasfasernetze</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Fully fibre-optic networks</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>FKW/PFC</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>FidAR</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>FCPF</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>Forest Carbon Partnership Facility</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>Forest Carbon Partnership Facility</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>FAO</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>Food and Agriculture Organization</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>EU-SILC</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>Statistics on Income and Living Conditions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>EU-EVK</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>EU-Energieverbrauchskennzeichnung</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>EUA</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Umweltagentur</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>EU-28</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>European Union consisting of 28 member states</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>EU-27</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>European Union consisting of 27 member states</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Union</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>European Union</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>etc.</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>und so weiter (et cetera)</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>and so on (et cetera)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>ESVG</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>ESA</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>European System of National and Regional Accounts</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>EMAS</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>Eco-Management and Audit Scheme</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>Eco-Management and Audit Scheme</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>EGW</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>Ernährungs- und der Gewerblichen Wirtschaft</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>Food and industrial economy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>EEG</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>Erneuerbare-Energien-Gesetz</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>Renewable Energy Sources Act</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>EEA</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>European Environment Agency</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>for example (exempli gratia)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>DIN</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>Deutsches Institut für Normung e.V.</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>German Institute for Standardisation Registered Association</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>DDB</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>Dachverband Deutscher Avifaunisten</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perception Index</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perception Index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>COVID-19</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>Coronavirus SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>Coronavirus SARS-CoV-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>CO₂</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>Kohlenstoffdioxid</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>Carbon dioxide</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>CLRTAP</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>CH₄</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>Methan</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>Methane</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>CATV</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>Kabelfernsehen</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>Cable television</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>bzw.</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>beziehungsweise</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>BNE</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>Bruttonationaleinkommen</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>Billion</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>BMZ</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Cooperation and Developmen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>BMVI</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>Body Mass Index</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>Body Mass Index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>BMEL</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>BLE</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>Federal Office for Agriculture and Food</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>BKG</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>Federal Agency for Cartography and Geodesy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>BIP</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>BfN</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>BEEG</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>Art.</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>Artikel</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>ALKIS</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>Official land register information system</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>AGEE-Stat</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>AGEB</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>Energy Balance Association</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>Abs.</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>Absatz</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>a.m.</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>before noon (ante meridiem)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>µg/m³</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm pro Kubikmeter</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms per cubic metre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>µg</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms</t>
         </is>
       </c>
     </row>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -519,29 +519,29 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
+          <t>Vereinte Nationen (United Nations)</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>usw.</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>und so weiter</t>
+          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -553,398 +553,398 @@
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>v. a.</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>US-Dollar</t>
+          <t>vor allem</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>usw.</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States of America)</t>
+          <t>und so weiter</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States)</t>
+          <t>US-Dollar</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United States dollar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>UNFCCC</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Vereinigte Staaten von Amerika (United States of America)</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>United Nations Framework Convention on Climate Change</t>
+          <t>United States of America</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>UNCCD</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
+          <t>Vereinigte Staaten von Amerika (United States)</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>UN Convention to Combat Desertification</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UNFCCC</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Vereinigtes Königreich (United Kingdom)</t>
+          <t/>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United Nations Framework Convention on Climate Change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>UBA</t>
+          <t>UNCCD</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Federal Environment Agency</t>
+          <t>UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>u.a.</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Vereinte Nationen (United Nations)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>u. a.</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Vereinigtes Königreich (United Kingdom)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>TWh</t>
+          <t>UBA</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Terawattstunde</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Terawatt hour</t>
+          <t>Federal Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>u.a.</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>TKU</t>
+          <t>u. a.</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Telekommunikationsunternehmen</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Telecommunications companies</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>SOEP</t>
+          <t>TWh</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Sozio-oekonomischen Panel</t>
+          <t>Terawattstunde</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Socio-Economic Panel</t>
+          <t>Terawatt hour</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>SO₂</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Schwefeldioxid</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Sulphur dioxide</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>SMEs</t>
+          <t>TKU</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Telekommunikationsunternehmen</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Small and medium-sized enterprises</t>
+          <t>Telecommunications companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>SF₆</t>
+          <t>SOEP</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sozio-oekonomischen Panel</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Sulphur hexafluoride</t>
+          <t>Socio-Economic Panel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>SES</t>
+          <t>SO₂</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Sozioökonomischer Status</t>
+          <t>Schwefeldioxid</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Sulphur dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SMEs</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Europäische Gesellschaft</t>
+          <t/>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Small and medium-sized enterprises</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>SDGs</t>
+          <t>SF₆</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t/>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>Sulphur hexafluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Sozioökonomischer Status</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>SALW</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Europäische Gesellschaft</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Small arms and light weapons</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>RKI</t>
+          <t>SDGs</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institute</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>REDD</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>R&amp;D</t>
+          <t>SALW</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -954,490 +954,490 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Small arms and light weapons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>PM₂.₅</t>
+          <t>RKI</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>Robert Koch-Institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>PM₂,₅</t>
+          <t>REDD</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>PM₁₀</t>
+          <t>R&amp;D</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
+          <t/>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
+          <t>Research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>PM₀.₁</t>
+          <t>PM₂.₅</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>PM₀,₁</t>
+          <t>PM₂,₅</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>PKS</t>
+          <t>PM₁₀</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Polizeilichen Kriminalstatistik</t>
+          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Police Crime Statistics</t>
+          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>PINETI</t>
+          <t>PM₀.₁</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>PFCs</t>
+          <t>PM₀,₁</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Perfluorocarbons</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>P97</t>
+          <t>PKS</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>97. Perzentil</t>
+          <t>Polizeilichen Kriminalstatistik</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>97th percentile</t>
+          <t>Police Crime Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>PINETI</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>90. Perzentil</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>90th percentile</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>PFCs</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t/>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Perfluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>P97</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t>97. Perzentil</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t>97th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>P90</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffoxid</t>
+          <t>90. Perzentil</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen oxides</t>
+          <t>90th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>NMVOCs</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>non-methane volatile organic compounds</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Ammoniak</t>
+          <t>Nummer</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Number</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>NF₃</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Stickstofftrifluorid</t>
+          <t>Stickstoffoxid</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen trifluoride</t>
+          <t>Nitrogen oxides</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>NMVOCs</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive</t>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>N₂O</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Lachgas</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Nitrous oxide</t>
+          <t>non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ammoniak</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>Ammonia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>MSY</t>
+          <t>NF₃</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield</t>
+          <t>Stickstofftrifluorid</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield</t>
+          <t>Nitrogen trifluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Mrd.</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Milliarde</t>
+          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>National Emission Ceilings Directive</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>N₂O</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Lachgas</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
+          <t>Nitrous oxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Milligramm</t>
+          <t/>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Miligrams</t>
+          <t>Nitrogen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Mbps</t>
+          <t>MSY</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Mbit/s</t>
+          <t>Mrd.</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Megabit pro Sekunde</t>
+          <t>Milliarde</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Kubikmeter</t>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Cubic metre</t>
+          <t>Miligrams per litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>mg</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Quadratmeter</t>
+          <t>Milligramm</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Square meter</t>
+          <t>Miligrams</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>LULUCF</t>
+          <t>Mbps</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -1447,478 +1447,478 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Land use, land-use change and forestry</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>LDCs</t>
+          <t>Mbit/s</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
+          <t>Megabit pro Sekunde</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>LDC</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>LAWA</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+          <t>Quadratmeter</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>LULUCF</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Liter</t>
+          <t/>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Litre</t>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>km²</t>
+          <t>LDCs</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Quadratkilometer</t>
+          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Square kilometer</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>LDC</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>LAWA</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>Liter</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>km²</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Quadratkilometer</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>Square kilometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Kfz</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrzeug</t>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>KfW</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>ISCO</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>ISCED</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>Kfz</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kraftfahrzeug</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>that is to say (id est)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>H-FKW/HFC</t>
+          <t>KfW</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>HFCs</t>
+          <t>ISCO</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Hydrofluorocarbons</t>
+          <t>International Standard Classification of Occupations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>GPG</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+          <t/>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>that is to say (id est)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>GNI</t>
+          <t>H-FKW/HFC</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Gross national income</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>GmbH</t>
+          <t>HFCs</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft mit beschränkter Haftung</t>
+          <t/>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Company with limited liability</t>
+          <t>Hydrofluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>Hektar</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>Hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>gGmbH</t>
+          <t>GPG</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
+          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Non-profit limited liability company</t>
+          <t>gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>GNI</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Grundgesetz</t>
+          <t/>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Basic Law</t>
+          <t>Gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>GmbH</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand</t>
+          <t>Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Company with limited liability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>gGmbH</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Non-profit limited liability company</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze</t>
+          <t>Grundgesetz</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks</t>
+          <t>Basic Law</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>gender pay gap</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Geschlechtsspezifischen Verdienstabstand</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -1930,279 +1930,279 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t/>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Reine Glasfasernetze</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t>Fully fibre-optic networks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Food and Agriculture Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>European Union consisting of 27 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und der Gewerblichen Wirtschaft</t>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>Food and industrial economy</t>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
@@ -2212,549 +2212,617 @@
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>Food and industrial economy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t/>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t/>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>DDB</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>CO₂</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Kohlenstoffdioxid</t>
+          <t>Dachverband Deutscher Avifaunisten</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>Carbon dioxide</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Development Assistance Committee</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>CH₄</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Methan</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Methane</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Kabelfernsehen</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Bruttonationaleinkommen</t>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Kabelfernsehen</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Developmen</t>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t/>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>before noon (ante meridiem)</t>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
+          <t>AGEB</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>Energy Balance Association</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>Abs.</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Absatz</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>a.m.</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>before noon (ante meridiem)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>µg/m³</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm pro Kubikmeter</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms per cubic metre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
           <t>µg</t>
         </is>
       </c>
-      <c r="B136" s="4" t="inlineStr">
+      <c r="B140" s="4" t="inlineStr">
         <is>
           <t>Mikrogramm</t>
         </is>
       </c>
-      <c r="C136" s="4" t="inlineStr">
+      <c r="C140" s="4" t="inlineStr">
         <is>
           <t>Micrograms</t>
         </is>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,8 +443,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="57.2734375"/>
+    <col customWidth="true" min="1" max="1" width="24.16796875"/>
+    <col customWidth="true" min="2" max="2" width="95.5078125"/>
     <col customWidth="true" min="3" max="3" width="47.4609375"/>
   </cols>
   <sheetData>
@@ -864,7 +864,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Schwefelhexafluorid</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub b (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>German Agency for International Cooperation</t>
         </is>
       </c>
     </row>
@@ -1913,80 +1913,80 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand</t>
+          <t/>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Reine Glasfasernetze</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Fully fibre-optic networks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -1998,97 +1998,97 @@
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Food and Agriculture Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t>Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -2100,177 +2100,177 @@
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>European Union consisting of 27 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t/>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>Food and industrial economy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Food and industrial economy</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t/>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -2280,223 +2280,223 @@
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>DDB</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Dachverband Deutscher Avifaunisten</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Development Assistance Committee</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>CO₂</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Kohlenstoffdioxid</t>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>Carbon dioxide</t>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>CH₄</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Methan</t>
+          <t>Kabelfernsehen</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Methane</t>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Kabelfernsehen</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -2508,68 +2508,68 @@
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Bruttonationaleinkommen</t>
+          <t/>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
@@ -2763,68 +2763,154 @@
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>before noon (ante meridiem)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>a.m.</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t/>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>before noon (ante meridiem)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
+          <t>µm</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Mikrometer</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>Micrometer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>µg/m³</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm pro Kubikmeter</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms per cubic metre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
           <t>µg</t>
         </is>
       </c>
-      <c r="B140" s="4" t="inlineStr">
+      <c r="B142" s="4" t="inlineStr">
         <is>
           <t>Mikrogramm</t>
         </is>
       </c>
-      <c r="C140" s="4" t="inlineStr">
+      <c r="C142" s="4" t="inlineStr">
         <is>
           <t>Micrograms</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
+          <t>ICES</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>International Council for the Exploration of the Sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>CRS</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Gläubigermeldesystem (Creditor Reporting System)</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>
+Creditor Reporting System</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>Doctor of Philosophy (philosophiae doctor)</t>
         </is>
       </c>
     </row>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -1131,7 +1131,7 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>PFCs</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1141,133 +1141,133 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Perfluorocarbons</t>
+          <t>Doctor of Philosophy (philosophiae doctor)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>P97</t>
+          <t>PFCs</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>97. Perzentil</t>
+          <t/>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>97th percentile</t>
+          <t>Perfluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>P97</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>90. Perzentil</t>
+          <t>97. Perzentil</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>90th percentile</t>
+          <t>97th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>P90</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t>90. Perzentil</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>90th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Nr.</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Nummer</t>
+          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffoxid</t>
+          <t>Nummer</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen oxides</t>
+          <t>Number</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>NMVOCs</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Stickstoffoxid</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds</t>
+          <t>Nitrogen oxides</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>NMVOCs</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -1277,189 +1277,189 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>non-methane volatile organic compounds</t>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Ammoniak</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>NF₃</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Stickstofftrifluorid</t>
+          <t>Ammoniak</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen trifluoride</t>
+          <t>Ammonia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>NF₃</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+          <t>Stickstofftrifluorid</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive</t>
+          <t>Nitrogen trifluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>N₂O</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Lachgas</t>
+          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Nitrous oxide</t>
+          <t>National Emission Ceilings Directive</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>N₂O</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Lachgas</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>Nitrous oxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>MSY</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield</t>
+          <t/>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield</t>
+          <t>Nitrogen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Mrd.</t>
+          <t>MSY</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Milliarde</t>
+          <t>höchstmöglichen Dauerertrag (Maximum Sustainable Yield)</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>Mrd.</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Milliarde</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Milligramm</t>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Miligrams</t>
+          <t>Miligrams per litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Mbps</t>
+          <t>mg</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Milligramm</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t>Miligrams</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Mbit/s</t>
+          <t>Mbps</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Megabit pro Sekunde</t>
+          <t/>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
@@ -1471,80 +1471,80 @@
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>Mbit/s</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Kubikmeter</t>
+          <t>Megabit pro Sekunde</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Cubic metre</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Quadratmeter</t>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Square meter</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>LULUCF</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadratmeter</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Land use, land-use change and forestry</t>
+          <t>Square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>LDCs</t>
+          <t>LULUCF</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
+          <t/>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>LDC</t>
+          <t>LDCs</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least developed countries)</t>
+          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
@@ -1556,228 +1556,228 @@
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>LAWA</t>
+          <t>LDC</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>LAWA</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Liter</t>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Litre</t>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>km²</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Quadratkilometer</t>
+          <t>Liter</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Square kilometer</t>
+          <t>Litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>km²</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t>Quadratkilometer</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t>Square kilometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Kfz</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrzeug</t>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>KfW</t>
+          <t>Kfz</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kraftfahrzeug</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>ISCO</t>
+          <t>KfW</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations</t>
+          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>ISCED</t>
+          <t>ISCO</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
+          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>International Standard Classification of Occupations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>that is to say (id est)</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>H-FKW/HFC</t>
+          <t>ICES</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>International Council for the Exploration of the Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>HFCs</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -1787,189 +1787,189 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Hydrofluorocarbons</t>
+          <t>that is to say (id est)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>H-FKW/HFC</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>GPG</t>
+          <t>HFCs</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+          <t/>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>Hydrofluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>GNI</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Hektar</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Gross national income</t>
+          <t>Hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>GmbH</t>
+          <t>GPG</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft mit beschränkter Haftung</t>
+          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Company with limited liability</t>
+          <t>gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>GNI</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t/>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>German Agency for International Cooperation</t>
+          <t>Gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>gGmbH</t>
+          <t>GmbH</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
+          <t>Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Non-profit limited liability company</t>
+          <t>Company with limited liability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Grundgesetz</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Basic Law</t>
+          <t>German Agency for International Cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>gGmbH</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Non-profit limited liability company</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Grundgesetz</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Basic Law</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze</t>
+          <t/>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
@@ -1981,936 +1981,936 @@
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Reine Glasfasernetze</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Fully fibre-optic networks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Food and Agriculture Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>European Union consisting of 27 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
+          <t/>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Food and industrial economy</t>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>Umweltmanagementsystem (Eco-Management and Audit Scheme)</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>Food and industrial economy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t/>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t/>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>DDB</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
+          <t>Dachverband Deutscher Avifaunisten</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Development Assistance Committee</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>CO₂</t>
+          <t>CRS</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Kohlenstoffdioxid</t>
+          <t>Gläubigermeldesystem (Creditor Reporting System)</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Carbon dioxide</t>
+          <t>
+Creditor Reporting System</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>CH₄</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Methan</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>Methane</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Kabelfernsehen</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Bruttonationaleinkommen</t>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kabelfernsehen</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>BMIs</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t/>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>AGEB</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>before noon (ante meridiem)</t>
+          <t>Energy Balance Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>a.m.</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t/>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>Micrograms</t>
+          <t>before noon (ante meridiem)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>ICES</t>
+          <t>µm</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
+          <t>Mikrometer</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>International Council for the Exploration of the Sea</t>
+          <t>Micrometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>µg/m³</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>Gläubigermeldesystem (Creditor Reporting System)</t>
+          <t>Mikrogramm pro Kubikmeter</t>
         </is>
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>
-Creditor Reporting System</t>
+          <t>Micrograms per cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>µg</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mikrogramm</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>Doctor of Philosophy (philosophiae doctor)</t>
+          <t>Micrograms</t>
         </is>
       </c>
     </row>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -468,97 +468,97 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>z. B.</t>
+          <t>§</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>zum Beispiel</t>
+          <t>Paragraf</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Paragraph</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>µg</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Women on Board</t>
+          <t>Mikrogramm</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Women on Board</t>
+          <t>Micrograms</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>WHO</t>
+          <t>µg/m³</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (World Health Organization)</t>
+          <t>Mikrogramm pro Kubikmeter</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Micrograms per cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>µm</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Vereinte Nationen (United Nations)</t>
+          <t>Mikrometer</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>United Nations</t>
+          <t>Micrometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>a.m.</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
+          <t/>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>before noon (ante meridiem)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>v. a.</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>vor allem</t>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -570,335 +570,335 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>usw.</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>und so weiter</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AGEB</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>US-Dollar</t>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t>Energy Balance Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States of America)</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States)</t>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>UNFCCC</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>United Nations Framework Convention on Climate Change</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>UNCCD</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>UN Convention to Combat Desertification</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Vereinte Nationen (United Nations)</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>United Nations</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>BGleiG</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Vereinigtes Königreich (United Kingdom)</t>
+          <t>Bundesgleichstellungsgesetz</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Federal Equality Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>UBA</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Federal Environment Agency</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>u.a.</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>u. a.</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>TWh</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Terawattstunde</t>
+          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Terawatt hour</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>BMFSFJ</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>TKU</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Telekommunikationsunternehmen</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Telecommunications companies</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>SOEP</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Sozio-oekonomischen Panel</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Socio-Economic Panel</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>SO₂</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Schwefeldioxid</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Sulphur dioxide</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>SMEs</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Small and medium-sized enterprises</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>SF₆</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Schwefelhexafluorid</t>
+          <t/>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Sulphur hexafluoride</t>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>SES</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Sozioökonomischer Status</t>
+          <t>Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Europäische Gesellschaft</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -910,228 +910,229 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>SDGs</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Kabelfernsehen</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>SALW</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Small arms and light weapons</t>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>RKI</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institute</t>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>REDD</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>R&amp;D</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>PM₂.₅</t>
+          <t>CRS</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Gläubigermeldesystem (Creditor Reporting System)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>
+Creditor Reporting System</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>PM₂,₅</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>Development Assistance Committee</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>PM₁₀</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
+          <t>Dachverband Deutscher Avifaunisten</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>PM₀.₁</t>
+          <t>DDB</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>PM₀,₁</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>PKS</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Polizeilichen Kriminalstatistik</t>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Police Crime Statistics</t>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>PINETI</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t/>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1141,274 +1142,274 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Doctor of Philosophy (philosophiae doctor)</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>PFCs</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Perfluorocarbons</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>P97</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>97. Perzentil</t>
+          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>97th percentile</t>
+          <t>Food and industrial economy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>90. Perzentil</t>
+          <t>Umweltmanagementsystem (Eco-Management and Audit Scheme)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>90th percentile</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t/>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Nr.</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Nummer</t>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffoxid</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen oxides</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>NMVOCs</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds</t>
+          <t>European Union consisting of 27 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>non-methane volatile organic compounds</t>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Ammoniak</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>NF₃</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Stickstofftrifluorid</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen trifluoride</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>N₂O</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Lachgas</t>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Nitrous oxide</t>
+          <t>Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>Food and Agriculture Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>MSY</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>höchstmöglichen Dauerertrag (Maximum Sustainable Yield)</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Mrd.</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Milliarde</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -1420,874 +1421,874 @@
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Milligramm</t>
+          <t>Reine Glasfasernetze</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Miligrams</t>
+          <t>Fully fibre-optic networks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Mbps</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Mbit/s</t>
+          <t>FüPoG</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Megabit pro Sekunde</t>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Kubikmeter</t>
+          <t/>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Cubic metre</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Quadratmeter</t>
+          <t>Grundgesetz</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Square meter</t>
+          <t>Basic Law</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>LULUCF</t>
+          <t>gGmbH</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Land use, land-use change and forestry</t>
+          <t>Non-profit limited liability company</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>LDCs</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t>German Agency for International Cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>LDC</t>
+          <t>GmbH</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
+          <t>Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t>Company with limited liability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>LAWA</t>
+          <t>GNI</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+          <t/>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>GPG</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Liter</t>
+          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Litre</t>
+          <t>gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>km²</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Quadratkilometer</t>
+          <t>Hektar</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Square kilometer</t>
+          <t>Hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>HFCs</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t>Hydrofluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>H-FKW/HFC</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t/>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>that is to say (id est)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>ICES</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>International Council for the Exploration of the Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Kfz</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrzeug</t>
+          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>KfW</t>
+          <t>ISCO</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
+          <t>International Standard Classification of Occupations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>ISCO</t>
+          <t>KfW</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations</t>
+          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>ISCED</t>
+          <t>Kfz</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
+          <t>Kraftfahrzeug</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>ICES</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>International Council for the Exploration of the Sea</t>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>that is to say (id est)</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>H-FKW/HFC</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>HFCs</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Hydrofluorocarbons</t>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>km²</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t>Quadratkilometer</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t>Square kilometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>GPG</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+          <t>Liter</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>Litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>GNI</t>
+          <t>LAWA</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Gross national income</t>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>GmbH</t>
+          <t>LDC</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft mit beschränkter Haftung</t>
+          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Company with limited liability</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>LDCs</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>German Agency for International Cooperation</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>gGmbH</t>
+          <t>LULUCF</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
+          <t/>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Non-profit limited liability company</t>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Grundgesetz</t>
+          <t>Quadratmeter</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Basic Law</t>
+          <t>Square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>Mbit/s</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Megabit pro Sekunde</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>Mbps</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze</t>
+          <t/>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>mg</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Milligramm</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Miligrams</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Miligrams per litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>Mrd.</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Milliarde</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>MSY</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>höchstmöglichen Dauerertrag (Maximum Sustainable Yield)</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t/>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>Nitrogen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>N₂O</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Lachgas</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Nitrous oxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>National Emission Ceilings Directive</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>NF₃</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Stickstofftrifluorid</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrogen trifluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Ammoniak</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>Ammonia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t>non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NMVOCs</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Stickstoffoxid</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>Nitrogen oxides</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>Nummer</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (Eco-Management and Audit Scheme)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>P90</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
+          <t>90. Perzentil</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Food and industrial economy</t>
+          <t>90th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>P97</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>97. Perzentil</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>97th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>PFCs</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -2297,14 +2298,14 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>Perfluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
@@ -2314,241 +2315,240 @@
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>Doctor of Philosophy (philosophiae doctor)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>PINETI</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>PKS</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>Polizeilichen Kriminalstatistik</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
+          <t>Police Crime Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>PM₀,₁</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>PM₀.₁</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>PM₁₀</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>PM₂,₅</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Gläubigermeldesystem (Creditor Reporting System)</t>
+          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>
-Creditor Reporting System</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>PM₂.₅</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
+          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>R&amp;D</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t/>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>CO₂</t>
+          <t>REDD</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Kohlenstoffdioxid</t>
+          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Carbon dioxide</t>
+          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>RKI</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Robert Koch-Institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>CH₄</t>
+          <t>SALW</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Methan</t>
+          <t/>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>Methane</t>
+          <t>Small arms and light weapons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Kabelfernsehen</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>SDGs</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Bruttonationaleinkommen</t>
+          <t>Europäische Gesellschaft</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
@@ -2560,148 +2560,148 @@
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sozioökonomischer Status</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>SF₆</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Schwefelhexafluorid</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Sulphur hexafluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>SMEs</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t/>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t>Small and medium-sized enterprises</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>BMIs</t>
+          <t>SO₂</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Schwefeldioxid</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Sulphur dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>SOEP</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Sozio-oekonomischen Panel</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Socio-Economic Panel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>TKU</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>Telekommunikationsunternehmen</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Telecommunications companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>TWh</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Terawattstunde</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Terawatt hour</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>u. a.</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -2713,12 +2713,12 @@
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>u.a.</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
@@ -2730,187 +2730,255 @@
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>UBA</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Federal Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Vereinigtes Königreich (United Kingdom)</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Vereinte Nationen (United Nations)</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t>United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>UNCCD</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>UNFCCC</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t/>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>United Nations Framework Convention on Climate Change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t>Vereinigte Staaten von Amerika (United States)</t>
         </is>
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Vereinigte Staaten von Amerika (United States of America)</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>United States of America</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>US-Dollar</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>before noon (ante meridiem)</t>
+          <t>United States dollar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>usw.</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t>und so weiter</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>v. a.</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>vor allem</t>
         </is>
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>Micrograms</t>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Vereinte Nationen (United Nations)</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>United Nations</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>WHO</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation (World Health Organization)</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>Women on Board</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>Women on Board</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
+          <t>z. B.</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>zum Beispiel</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -485,80 +485,80 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>WRRL</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Women on Board</t>
+          <t>Wasserrahmenrichtlinie</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Women on Board</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>WHO</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (World Health Organization)</t>
+          <t>Women on Board</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Women on Board</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>WHO</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Vereinte Nationen (United Nations)</t>
+          <t>Weltgesundheitsorganisation (World Health Organization)</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>United Nations</t>
+          <t>World Health Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
+          <t>Vereinte Nationen (United Nations)</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>v. a.</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>vor allem</t>
+          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -570,12 +570,12 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>usw.</t>
+          <t>v. a.</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>und so weiter</t>
+          <t>vor allem</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -587,165 +587,165 @@
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>usw.</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>US-Dollar</t>
+          <t>und so weiter</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States of America)</t>
+          <t>US-Dollar</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>United States dollar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States)</t>
+          <t>Vereinigte Staaten von Amerika (United States of America)</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United States of America</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>UNFCCC</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Vereinigte Staaten von Amerika (United States)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>United Nations Framework Convention on Climate Change</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>UNCCD</t>
+          <t>UNFCCC</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
+          <t/>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>UN Convention to Combat Desertification</t>
+          <t>United Nations Framework Convention on Climate Change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>UNCCD</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Vereinte Nationen (United Nations)</t>
+          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>United Nations</t>
+          <t>UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Vereinigtes Königreich (United Kingdom)</t>
+          <t>Vereinte Nationen (United Nations)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>UGR</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Vereinigtes Königreich (United Kingdom)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Environmental economic accounts</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>UBA</t>
+          <t>UGR</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Umweltökonomische Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Federal Environment Agency</t>
+          <t>Environmental economic accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>u.a.</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Umweltgutachterausschuss</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
@@ -757,755 +757,755 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>u. a.</t>
+          <t>UBA</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>unter anderem</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>TWh</t>
+          <t>u.a.</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Terawattstunde</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Terawatt hour</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>u. a.</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t>unter anderem</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>TKU</t>
+          <t>TZ</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Telekommunikationsunternehmen</t>
+          <t>Technische Zusammenarbeit</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Telecommunications companies</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>sog.</t>
+          <t>TWh</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>sogenannte/r/s</t>
+          <t>Terawattstunde</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Terawatt hour</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>SOEP</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Sozio-oekonomischen Panel</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Socio-Economic Panel</t>
+          <t>Transport Emission Estimation Model</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>SO₂</t>
+          <t>TKU</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Schwefeldioxid</t>
+          <t>Telekommunikationsunternehmen</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Sulphur dioxide</t>
+          <t>Telecommunications companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>SMEs</t>
+          <t>THG</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgase</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Small and medium-sized enterprises</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>SF₆</t>
+          <t>sog.</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Schwefelhexafluorid</t>
+          <t>sogenannte/r/s</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Sulphur hexafluoride</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>SES</t>
+          <t>SOEP</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Sozioökonomischer Status</t>
+          <t>Sozio-oekonomischen Panel</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Socio-Economic Panel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SO₂</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Europäische Gesellschaft</t>
+          <t>Schwefeldioxid</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sulphur dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>SDGs</t>
+          <t>SMEs</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t/>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>Small and medium-sized enterprises</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>SF₆</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Schwefelhexafluorid</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>Sulphur hexafluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>SALW</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sozioökonomischer Status</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Small arms and light weapons</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>RKI</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Europäische Gesellschaft</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institute</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>REDD</t>
+          <t>SDGs</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>R&amp;D</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Sustainable Development Goals</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>PM₂.₅</t>
+          <t>SALW</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t/>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>Small arms and light weapons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>PM₂,₅</t>
+          <t>RKI</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t>Robert Koch-Institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>PM₁₀</t>
+          <t>REDD</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
+          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
+          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>PM₀.₁</t>
+          <t>R&amp;D</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t/>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t>Research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>PM₀,₁</t>
+          <t>PM₂.₅</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Pkw</t>
+          <t>PM₂,₅</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Personenkraftwagen</t>
+          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>PKS</t>
+          <t>PM₁₀</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Polizeilichen Kriminalstatistik</t>
+          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Police Crime Statistics</t>
+          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>PINETI</t>
+          <t>PM₀.₁</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>PM₀,₁</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Doctor of Philosophy (philosophiae doctor)</t>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>PFCs</t>
+          <t>Pkw</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Personenkraftwagen</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Perfluorocarbons</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>P97</t>
+          <t>PKS</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>97. Perzentil</t>
+          <t>Polizeilichen Kriminalstatistik</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>97th percentile</t>
+          <t>Police Crime Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>PINETI</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>90. Perzentil</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>90th percentile</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t/>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Doctor of Philosophy (philosophiae doctor)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>PFCs</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t/>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t>Perfluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Nr.</t>
+          <t>P97</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Nummer</t>
+          <t>97. Perzentil</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>97th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>P90</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffoxid</t>
+          <t>90. Perzentil</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen oxides</t>
+          <t>90th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>NMVOCs</t>
+          <t>OGewV</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Oberflächengewässerverordnung</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>non-methane volatile organic compounds</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Ammoniak</t>
+          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>NF₃</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Stickstofftrifluorid</t>
+          <t>Nummer</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen trifluoride</t>
+          <t>Number</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+          <t>Stickstoffoxid</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive</t>
+          <t>Nitrogen oxides</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>N₂O</t>
+          <t>NMVOCs</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Lachgas</t>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Nitrous oxide</t>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>MSY</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>höchstmöglichen Dauerertrag (Maximum Sustainable Yield)</t>
+          <t>Ammoniak</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield</t>
+          <t>Ammonia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Mrd.</t>
+          <t>NF₃</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Milliarde</t>
+          <t>Stickstofftrifluorid</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrogen trifluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
+          <t>National Emission Ceilings Directive</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>N₂O</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Milligramm</t>
+          <t>Lachgas</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Miligrams</t>
+          <t>Nitrous oxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Mbps</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -1515,524 +1515,524 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t>Nitrogen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Mbit/s</t>
+          <t>MSY</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Megabit pro Sekunde</t>
+          <t>höchstmöglicher Dauerertrag (Maximum Sustainable Yield)</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>MSRL</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Kubikmeter</t>
+          <t>Meeresstrategie-Rahmenrichtlinie</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Cubic metre</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>Mrd.</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Quadratmeter</t>
+          <t>Milliarde</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Square meter</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>LULUCF</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Land use, land-use change and forestry</t>
+          <t>Miligrams per litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>LDCs</t>
+          <t>mg</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
+          <t>Milligramm</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t>Miligrams</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>LDC</t>
+          <t>Mbps</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
+          <t/>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>LAWA</t>
+          <t>Mbit/s</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+          <t>Megabit pro Sekunde</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Liter</t>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Litre</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>KNB</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Quadratmeter</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>Square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>km²</t>
+          <t>LULUCF</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Quadratkilometer</t>
+          <t/>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Square kilometer</t>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>LQ-LR</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t>Luftqualitäts-Richtlinie</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>LDCs</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>LDC</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>LAWA</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Kfz</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrzeug</t>
+          <t>Liter</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>KfW</t>
+          <t>KSG</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Bundes-Klimaschutzgesetz</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>ISCO</t>
+          <t>KNB</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>ISCED</t>
+          <t>km²</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
+          <t>Quadratkilometer</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>Square kilometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>ICES</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>International Council for the Exploration of the Sea</t>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>that is to say (id est)</t>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>H-FKW/HFC</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>HFCs</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Hydrofluorocarbons</t>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>Kfz</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t>Kraftfahrzeug</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>GPG</t>
+          <t>KfW</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>GNI</t>
+          <t>JRC</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gemeinsame Forschungsstelle (Joint Research Centre)</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Gross national income</t>
+          <t>Joint Research Centre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>GmbH</t>
+          <t>ISCO</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft mit beschränkter Haftung</t>
+          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Company with limited liability</t>
+          <t>International Standard Classification of Occupations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>German Agency for International Cooperation</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>gGmbH</t>
+          <t>IHK</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
+          <t>Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Non-profit limited liability company</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>ifeu</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Grundgesetz</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Basic Law</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>GfK</t>
+          <t>ICES</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Consumer research institute</t>
+          <t>International Council for the Exploration of the Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -2042,19 +2042,19 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>that is to say (id est)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>FüPoG</t>
+          <t>H-FKW/HFC</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Führungspositionen-Gesetz</t>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -2066,284 +2066,284 @@
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>HFCs</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t/>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Hydrofluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze</t>
+          <t>Hektar</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks</t>
+          <t>Hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>GPG</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>GNI</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t/>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>GmbH</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Company with limited liability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>GleiStatV</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Gleichstellungsstatistikverordnung</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>EZB</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>German Agency for International Cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>EVK</t>
+          <t>gGmbH</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauchskennzeichnung</t>
+          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>energy consumption labelling</t>
+          <t>Non-profit limited liability company</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t>Grundgesetz</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>Basic Law</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GfK</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Consumer research institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t/>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>GCF</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Green Climate Fund</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Green Climate Fund</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>FZ</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Finanzielle Zusammenarbeit</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>FüPoG</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Reine Glasfasernetze</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>Fully fibre-optic networks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
@@ -2355,815 +2355,1206 @@
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (Eco-Management and Audit Scheme)</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
+          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Food and industrial economy</t>
+          <t>Food and Agriculture Organization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>EZB</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>EVK</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>ECB</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Statistisches Amt der Europäischen Union</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>European Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t>European Union consisting of 27 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Union</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>European Union</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>etc.</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>und so weiter (et cetera)</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>and so on (et cetera)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>ESVG</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>ESA</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>European System of National and Regional Accounts</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>EMAS</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>Umweltmanagementsystem (Eco-Management and Audit Scheme)</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>Eco-Management and Audit Scheme</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>EGW</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>Food and industrial economy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>EEG</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>Erneuerbare-Energien-Gesetz</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>Renewable Energy Sources Act</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>EEA</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>European Environment Agency</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>ECB</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>European Central Bank</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>for example (exempli gratia)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Nachhaltigkeitsstrategie</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>German Susatinability Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>DIW</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>DeutscheS Instituts für Wirtschaftsforschung</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>German Institute for Economic Research</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>DIN</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Deutsches Institut für Normung e.V.</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>German Institute for Standardisation Registered Association</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>DIHK</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>Deutscher Industrie- und Handelskammertag</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>DDB</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>Dachverband Deutscher Avifaunisten</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
           <t>CRS</t>
         </is>
       </c>
-      <c r="B125" s="4" t="inlineStr">
+      <c r="B143" s="4" t="inlineStr">
         <is>
           <t>Gläubigermeldesystem (Creditor Reporting System)</t>
         </is>
       </c>
-      <c r="C125" s="4" t="inlineStr">
+      <c r="C143" s="4" t="inlineStr">
         <is>
           <t>
 Creditor Reporting System</t>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="126">
-      <c r="A126" s="4" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="B126" s="4" t="inlineStr">
-        <is>
-          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
-        </is>
-      </c>
-      <c r="C126" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="127">
-      <c r="A127" s="4" t="inlineStr">
-        <is>
-          <t>COVID-19</t>
-        </is>
-      </c>
-      <c r="B127" s="4" t="inlineStr">
-        <is>
-          <t>Coronavirus SARS-CoV-2</t>
-        </is>
-      </c>
-      <c r="C127" s="4" t="inlineStr">
-        <is>
-          <t>Coronavirus SARS-CoV-2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="128">
-      <c r="A128" s="4" t="inlineStr">
-        <is>
-          <t>CO₂</t>
-        </is>
-      </c>
-      <c r="B128" s="4" t="inlineStr">
-        <is>
-          <t>Kohlenstoffdioxid</t>
-        </is>
-      </c>
-      <c r="C128" s="4" t="inlineStr">
-        <is>
-          <t>Carbon dioxide</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="129">
-      <c r="A129" s="4" t="inlineStr">
-        <is>
-          <t>CLRTAP</t>
-        </is>
-      </c>
-      <c r="B129" s="4" t="inlineStr">
-        <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
-        </is>
-      </c>
-      <c r="C129" s="4" t="inlineStr">
-        <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="130">
-      <c r="A130" s="4" t="inlineStr">
-        <is>
-          <t>CH₄</t>
-        </is>
-      </c>
-      <c r="B130" s="4" t="inlineStr">
-        <is>
-          <t>Methan</t>
-        </is>
-      </c>
-      <c r="C130" s="4" t="inlineStr">
-        <is>
-          <t>Methane</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="131">
-      <c r="A131" s="4" t="inlineStr">
-        <is>
-          <t>CATV</t>
-        </is>
-      </c>
-      <c r="B131" s="4" t="inlineStr">
-        <is>
-          <t>Kabelfernsehen</t>
-        </is>
-      </c>
-      <c r="C131" s="4" t="inlineStr">
-        <is>
-          <t>Cable television</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="132">
-      <c r="A132" s="4" t="inlineStr">
-        <is>
-          <t>bzw.</t>
-        </is>
-      </c>
-      <c r="B132" s="4" t="inlineStr">
-        <is>
-          <t>beziehungsweise</t>
-        </is>
-      </c>
-      <c r="C132" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="133">
-      <c r="A133" s="4" t="inlineStr">
-        <is>
-          <t>BNE</t>
-        </is>
-      </c>
-      <c r="B133" s="4" t="inlineStr">
-        <is>
-          <t>Bruttonationaleinkommen</t>
-        </is>
-      </c>
-      <c r="C133" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="134">
-      <c r="A134" s="4" t="inlineStr">
-        <is>
-          <t>bn</t>
-        </is>
-      </c>
-      <c r="B134" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C134" s="4" t="inlineStr">
-        <is>
-          <t>Billion</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="135">
-      <c r="A135" s="4" t="inlineStr">
-        <is>
-          <t>BMZ</t>
-        </is>
-      </c>
-      <c r="B135" s="4" t="inlineStr">
-        <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
-        </is>
-      </c>
-      <c r="C135" s="4" t="inlineStr">
-        <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="136">
-      <c r="A136" s="4" t="inlineStr">
-        <is>
-          <t>BMVI</t>
-        </is>
-      </c>
-      <c r="B136" s="4" t="inlineStr">
-        <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
-        </is>
-      </c>
-      <c r="C136" s="4" t="inlineStr">
-        <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="137">
-      <c r="A137" s="4" t="inlineStr">
-        <is>
-          <t>BMIs</t>
-        </is>
-      </c>
-      <c r="B137" s="4" t="inlineStr">
-        <is>
-          <t>Body Mass Index</t>
-        </is>
-      </c>
-      <c r="C137" s="4" t="inlineStr">
-        <is>
-          <t>Body Mass Index</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="138">
-      <c r="A138" s="4" t="inlineStr">
-        <is>
-          <t>BMI</t>
-        </is>
-      </c>
-      <c r="B138" s="4" t="inlineStr">
-        <is>
-          <t>Body Mass Index</t>
-        </is>
-      </c>
-      <c r="C138" s="4" t="inlineStr">
-        <is>
-          <t>Body Mass Index</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="139">
-      <c r="A139" s="4" t="inlineStr">
-        <is>
-          <t>BMFSFJ</t>
-        </is>
-      </c>
-      <c r="B139" s="4" t="inlineStr">
-        <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
-        </is>
-      </c>
-      <c r="C139" s="4" t="inlineStr">
-        <is>
-          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="140">
-      <c r="A140" s="4" t="inlineStr">
-        <is>
-          <t>BMEL</t>
-        </is>
-      </c>
-      <c r="B140" s="4" t="inlineStr">
-        <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
-        </is>
-      </c>
-      <c r="C140" s="4" t="inlineStr">
-        <is>
-          <t>Federal Ministry of Food and Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="141">
-      <c r="A141" s="4" t="inlineStr">
-        <is>
-          <t>BMDV</t>
-        </is>
-      </c>
-      <c r="B141" s="4" t="inlineStr">
-        <is>
-          <t>Bundesministeriums für Digitales und Verkehr</t>
-        </is>
-      </c>
-      <c r="C141" s="4" t="inlineStr">
-        <is>
-          <t>Federal Ministry for Digital and Transport</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="142">
-      <c r="A142" s="4" t="inlineStr">
-        <is>
-          <t>BLE</t>
-        </is>
-      </c>
-      <c r="B142" s="4" t="inlineStr">
-        <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
-        </is>
-      </c>
-      <c r="C142" s="4" t="inlineStr">
-        <is>
-          <t>Federal Office for Agriculture and Food</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="143">
-      <c r="A143" s="4" t="inlineStr">
-        <is>
-          <t>BKG</t>
-        </is>
-      </c>
-      <c r="B143" s="4" t="inlineStr">
-        <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
-        </is>
-      </c>
-      <c r="C143" s="4" t="inlineStr">
-        <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
-        </is>
-      </c>
-    </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
         </is>
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>BGleiG</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>Bundesgleichstellungsgesetz</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>Federal Equality Act</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>BeschA</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>Beschaffungsamt</t>
+          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>Procurement Office</t>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>BBSR</t>
+          <t>CFS</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Ausschuss für die Welternährungssicherheit der Vereinten Nationen (Committee on World Food Security)</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>The Federal Office for Building and Regional Planning</t>
+          <t>Committee on World Food Security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>CeVal</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Centrum für Evaluation</t>
         </is>
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Kabelfernsehen</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t/>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>before noon (ante meridiem)</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>BMUV</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t>Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t>Federal Environment and Consumer Protection Ministry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>Micrograms</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
+          <t>BMFSFJ</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
+        </is>
+      </c>
+      <c r="C160" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="4" t="inlineStr">
+        <is>
+          <t>BMF</t>
+        </is>
+      </c>
+      <c r="B161" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium der Finanzen</t>
+        </is>
+      </c>
+      <c r="C161" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium der Finanzen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="4" t="inlineStr">
+        <is>
+          <t>BMEL</t>
+        </is>
+      </c>
+      <c r="B162" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="C162" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>BMDV</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministeriums für Digitales und Verkehr</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>BLE</t>
+        </is>
+      </c>
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>Federal Office for Agriculture and Food</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>BKG</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>Federal Agency for Cartography and Geodesy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>BKA</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>Bundeskriminalamt</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>Federal Criminal Police Office</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>BIP</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>BGleiG</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>Bundesgleichstellungsgesetz</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>Federal Equality Act</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>BfN</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
+          <t>BeschA</t>
+        </is>
+      </c>
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>Beschaffungsamt</t>
+        </is>
+      </c>
+      <c r="C170" s="4" t="inlineStr">
+        <is>
+          <t>Procurement Office</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="4" t="inlineStr">
+        <is>
+          <t>BEEG</t>
+        </is>
+      </c>
+      <c r="B171" s="4" t="inlineStr">
+        <is>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+        </is>
+      </c>
+      <c r="C171" s="4" t="inlineStr">
+        <is>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="4" t="inlineStr">
+        <is>
+          <t>BBSR</t>
+        </is>
+      </c>
+      <c r="B172" s="4" t="inlineStr">
+        <is>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+        </is>
+      </c>
+      <c r="C172" s="4" t="inlineStr">
+        <is>
+          <t>The Federal Office for Building and Regional Planning</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>Art.</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="inlineStr">
+        <is>
+          <t>Artikel</t>
+        </is>
+      </c>
+      <c r="C173" s="4" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="4" t="inlineStr">
+        <is>
+          <t>ALKIS</t>
+        </is>
+      </c>
+      <c r="B174" s="4" t="inlineStr">
+        <is>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+        </is>
+      </c>
+      <c r="C174" s="4" t="inlineStr">
+        <is>
+          <t>Official land register information system</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="4" t="inlineStr">
+        <is>
+          <t>AGEE-Stat</t>
+        </is>
+      </c>
+      <c r="B175" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="C175" s="4" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>AGEB</t>
+        </is>
+      </c>
+      <c r="B176" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>Energy Balance Association</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t>AGA</t>
+        </is>
+      </c>
+      <c r="B177" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+        </is>
+      </c>
+      <c r="C177" s="4" t="inlineStr">
+        <is>
+          <t>Childhood Obesity Federation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="4" t="inlineStr">
+        <is>
+          <t>Abs.</t>
+        </is>
+      </c>
+      <c r="B178" s="4" t="inlineStr">
+        <is>
+          <t>Absatz</t>
+        </is>
+      </c>
+      <c r="C178" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>a.m.</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>before noon (ante meridiem)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>µm</t>
+        </is>
+      </c>
+      <c r="B180" s="4" t="inlineStr">
+        <is>
+          <t>Mikrometer</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>Micrometer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>µg/m³</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm pro Kubikmeter</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms per cubic metre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="4" t="inlineStr">
+        <is>
+          <t>µg</t>
+        </is>
+      </c>
+      <c r="B182" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm</t>
+        </is>
+      </c>
+      <c r="C182" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="4" t="inlineStr">
+        <is>
           <t>§</t>
         </is>
       </c>
-      <c r="B160" s="4" t="inlineStr">
+      <c r="B183" s="4" t="inlineStr">
         <is>
           <t>Paragraf</t>
         </is>
       </c>
-      <c r="C160" s="4" t="inlineStr">
+      <c r="C183" s="4" t="inlineStr">
         <is>
           <t>Paragraph</t>
         </is>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -445,7 +445,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="24.16796875"/>
     <col customWidth="true" min="2" max="2" width="95.5078125"/>
-    <col customWidth="true" min="3" max="3" width="47.4609375"/>
+    <col customWidth="true" min="3" max="3" width="78.66015625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -524,7 +524,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (World Health Organization)</t>
+          <t>World Health Organization (Weltgesundheitsorganisation)</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Vereinte Nationen (United Nations)</t>
+          <t>Vereinte Nationen</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>United Nations</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftlichen Gesamtrechnungen</t>
+          <t>Volkswirtschaftliche Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>National accounts</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t>United States Dollar</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States of America)</t>
+          <t>United States of America (Vereinigte Staaten von Amerika)</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten von Amerika (United States)</t>
+          <t>United States (Vereinigte Staaten von Amerika)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>United Nations Framework Convention on Climate Change (Rahmenübereinkommen der Vereinten Nationen über Klimaänderungen)</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern</t>
+          <t>United Nations Convention to Combat Desertification (Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>UN Convention to Combat Desertification</t>
+          <t>United Nations Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Vereinte Nationen (United Nations)</t>
+          <t>United Nations (Vereinte Nationen)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Vereinigtes Königreich (United Kingdom)</t>
+          <t>United Kingdom (Vereinigtes Königreich)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t>Transport Emission Model</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Transport Emission Estimation Model</t>
+          <t>Transport Emission Model</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgase</t>
+          <t>Treibhausgas</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Sozio-oekonomischen Panel</t>
+          <t>Sozio-oekonomisches Panel</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Small and medium-sized enterprises (Kleine und mittelständische Unternehmen)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Sozioökonomischer Status</t>
+          <t>Socioeconomic status (Sozioökonomischer Status)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Europäische Gesellschaft</t>
+          <t>Societas Europaea (Europäische Gesellschaft)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Sustainable Development Goals (Ziele für Nachhaltige Entwicklung)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Ziele für Nachhaltige Entwicklung (Sustainable Development Goals)</t>
+          <t>Sustainable Development Goal (Ziele für Nachhaltige Entwicklung)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Goals</t>
+          <t>Sustainable Development Goal</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Small arms and light weapons (Kleinwaffen und leichte Waffen)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Verringerung von Emissionen aus Entwaldung und Waldschädigung sowie die Rolle des Waldschutzes, der nachhaltigen Waldbewirtschaftung und des Ausbaus des Kohlenstoffspeichers Wald in Entwicklungsländern</t>
+          <t>Reducing Emissions from Deforestation and Forest Degradation (Minderung von Emissionen aus Entwaldung und Schädigung von Wäldern)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Reducing emissions from deforestation and forest degradation and the role of conservation, sustainable management of forests and enhancement of forest carbon stocks in developing countries</t>
+          <t>Reducing Emissions from Deforestation and Forest Degradation</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Research and Development (Forschung und Entwicklung)</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Polizeilichen Kriminalstatistik</t>
+          <t>Polizeiliche Kriminalstatistik</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Doctor of Philosophy (philosophiae doctor)</t>
+          <t>Doctor of Philosophy</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development)</t>
+          <t>Organisation for Economic Co-operation and Development (Organisation für wirtschaftliche Zusammenarbeit und Entwicklung)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Öffentliche Entwicklungsausgaben (official development assistance)</t>
+          <t>Official development assistance (Öffentliche Entwicklungsausgaben)</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Non-methane volatile organic compounds (Flüchtige organische Verbindungen ohne Methan)</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Flüchtige organische Verbindungen (non-methane volatile organic compounds)</t>
+          <t>Non-methane volatile organic compounds (Flüchtige organische Verbindungen ohne Methan)</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Richtlinie über nationale Emissionshöchstmengen für bestimmte Luftschadstoffe (National Emission Ceilings Directive)</t>
+          <t>National Emission Ceilings Directive (Richtlinie über nationale Emissionshöchstmengen)</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive</t>
+          <t>National Emission Ceilings</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Stickstoff</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>höchstmöglicher Dauerertrag (Maximum Sustainable Yield)</t>
+          <t>Maximum Sustainable Yield (Höchstmöglicher Dauerertrag)</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Meeresstrategie-Rahmenrichtlinie</t>
+          <t>EG-Meeresstrategie-Rahmenrichtlinie</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
@@ -1573,58 +1573,58 @@
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>Mill.</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Millionen</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Milligramm</t>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Miligrams</t>
+          <t>Miligrams per litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Mbps</t>
+          <t>mg</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Milligramm</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t>Miligrams</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Mbit/s</t>
+          <t>Mbps</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -1641,97 +1641,97 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>Mbit/s</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Kubikmeter</t>
+          <t>Megabit pro Sekunde</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Cubic metre</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Quadratmeter</t>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Square meter</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>LULUCF</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadratmeter</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Land use, land-use change and forestry</t>
+          <t>Square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>LQ-LR</t>
+          <t>LULUCF</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Luftqualitäts-Richtlinie</t>
+          <t>Land Use, Land-Use Change and Forestry (Landnutzung, Landnutzungsänderungen und Forstwirtschaft)</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>LDCs</t>
+          <t>LQ-LR</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
+          <t>Luftqualitäts-Richtlinie</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>LDC</t>
+          <t>LDCs</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>am wenigsten entwickelte Länder (Least Developed Countries)</t>
+          <t>Least developed countries (Am wenigsten entwickelte Länder)</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
@@ -1743,335 +1743,335 @@
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>LAWA</t>
+          <t>LDC</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+          <t>Least developed countries (Am wenigsten entwickelte Länder)</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>LAWA</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Liter</t>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Litre</t>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>KSG</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Bundes-Klimaschutzgesetz</t>
+          <t>Liter</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>KNB</t>
+          <t>KSG</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Bundes-Klimaschutzgesetz</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>km²</t>
+          <t>KNB</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Quadratkilometer</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Square kilometer</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>km²</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t>Quadratkilometer</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t>Square kilometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>Kfz</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrzeug</t>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>KfW</t>
+          <t>Kfz</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kraftfahrzeug</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Reconstruction Loan Corporation (Kreditanstalt für Wiederaufbau)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>JRC</t>
+          <t>KfW</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Gemeinsame Forschungsstelle (Joint Research Centre)</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Joint Research Centre</t>
+          <t>Reconstruction Loan Corporation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>ISCO</t>
+          <t>JRC</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation der Berufe (International Standard Classification of Occupations)</t>
+          <t>Joint Research Centre (Gemeinsame Forschungsstelle)</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations</t>
+          <t>Joint Research Centre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>ISCED</t>
+          <t>ISCO</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Internationale Standardklassifikation des Bildungswesens (International Standard Classification of Education)</t>
+          <t>International Standard Classification of Occupations (Internationale Standardklassifikation der Berufe)</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>International Standard Classification of Occupations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>IHK</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Industrie- und Handelskammer</t>
+          <t>International Standard Classification of Education (Internationale Standardklassifikation des Bildungswesens)</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>IHK</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>ICES</t>
+          <t>ifeu</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>International Council for the Exploration of the Sea</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>ICES</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>International Council for the Exploration of the Sea (Internationaler Rat für Meeresforschung)</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>that is to say (id est)</t>
+          <t>International Council for the Exploration of the Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>H-FKW/HFC</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+          <t/>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>that is to say (id est)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>HFCs</t>
+          <t>H-FKW/HFC</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
@@ -2083,216 +2083,216 @@
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>HFCs</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t>Hydrofluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>GPG</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtsspezifischen Verdienstabstand (gender pay gap)</t>
+          <t>Hektar</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>gender pay gap</t>
+          <t>Hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>GNI</t>
+          <t>GPG</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gender Pay Gap (Geschlechtsspezifischer Verdienstabstand)</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>Gross national income</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>GmbH</t>
+          <t>GNI</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft mit beschränkter Haftung</t>
+          <t/>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>Company with limited liability</t>
+          <t>Gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>GleiStatV</t>
+          <t>GmbH</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellungsstatistikverordnung</t>
+          <t>Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Company with limited liability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>GleiStatV</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t>Gleichstellungsstatistikverordnung</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>German Agency for International Cooperation</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>gGmbH</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>gemeinnützige Gesellschaft mit beschränkter Haftung</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>Non-profit limited liability company</t>
+          <t>German Agency for International Cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>gGmbH</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Grundgesetz</t>
+          <t>Gemeinnützige Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Basic Law</t>
+          <t>Non-profit limited liability company</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>GfK</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Grundgesetz für die Bundesrepublik Deutschland</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Consumer research institute</t>
+          <t>Basic Law for the Federal Republic of Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>GfK</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Consumer research institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>GCF</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Green Climate Fund</t>
+          <t/>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Green Climate Fund</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>FZ</t>
+          <t>GCF</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Finanzielle Zusammenarbeit</t>
+          <t>Green Climate Fund (Grüner Klimafonds)</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Green Climate Fund</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>FüPoG</t>
+          <t>FZ</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Führungspositionen-Gesetz</t>
+          <t>Finanzielle Zusammenarbeit</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -2304,12 +2304,12 @@
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>FüPoG</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
@@ -2321,727 +2321,727 @@
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Fibre-to-the-Building/Fibre-to-the-Home (Glasfaser bis zum Gebäude/Glasfaser bis in die Wohnung)</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Fibre-to-the-Building/Fibre-to-the-Home</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Perfluorcarbone</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen (Food and Agriculture Organization)</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>EZB</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Food and Agriculture Organization of the United Nations (Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Food and Agriculture Organization of the United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>EVK</t>
+          <t>EZB</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauchskennzeichnung</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>energy consumption labelling</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>EVK</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Statistik über Einkommen und Lebensbedingungen (Statistics on Income and Living Conditions)</t>
+          <t>Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>Statistics on Income and Living Conditions</t>
+          <t>energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Amt der Europäischen Union</t>
+          <t>EU-Statistics on Income and Living Conditions (Statistik über Einkommen und Lebensbedingungen)</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>European Statistical Office</t>
+          <t>EU-Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>European Statistical Office (Statistisches Amt der Europäischen Union)</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>European Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EU energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states</t>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten (ohne das Vereinigte Königreich)</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>European Union consisting of 27 member states (without United Kingdom)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (Eco-Management and Audit Scheme)</t>
+          <t/>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Ernährungs- und der Gewerbliche Wirtschaft</t>
+          <t>Eco-Management and Audit Scheme (Umweltmanagementsystem)</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>Food and industrial economy</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>Warenklassifikation der Ernährungs- und der Gewerblichen Wirtschaft in der Außenhandelsstatistik</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>Classification of goods in the food and industrial economy in Foreign Trade Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>ECB</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>ECB</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European Central Bank (Europäische Zentralbank)</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>European Central Bank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Nachhaltigkeitsstrategie</t>
+          <t>zum Beispiel</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>German Susatinability Strategy</t>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>DIW</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>DeutscheS Instituts für Wirtschaftsforschung</t>
+          <t>Deutsche Nachhaltigkeitsstrategie</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German Susatinability Strategy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>DIW</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>DIHK</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Industrie- und Handelskammertag</t>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>DIHK</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>German Investment and Development Corporation (Deutsche Investitions- und Entwicklungsgesellschaft)</t>
+          <t>German Chamber of Commerce and Industry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library (Deutsche Digitale Bibliothek)</t>
+          <t>German Investment and Development Corporation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>DDB</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>Richtlinien des Entwicklungsausschusses (Development Assistance Committee)</t>
+          <t>Dachverband Deutscher Avifaunisten</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee (Richtlinie des Entwicklungsausschusses)</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
           <t>CRS</t>
         </is>
       </c>
-      <c r="B143" s="4" t="inlineStr">
-        <is>
-          <t>Gläubigermeldesystem (Creditor Reporting System)</t>
-        </is>
-      </c>
-      <c r="C143" s="4" t="inlineStr">
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Creditor Reporting System (Gläubigermeldesystem)</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
         <is>
           <t>
 Creditor Reporting System</t>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="144">
-      <c r="A144" s="4" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="B144" s="4" t="inlineStr">
-        <is>
-          <t>Korruptionswahrnehmungsindex (Corruption Perception Index)</t>
-        </is>
-      </c>
-      <c r="C144" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index</t>
-        </is>
-      </c>
-    </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Corruption Perception Index (Korruptionswahrnehmungsindex)</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>CO₂</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>Kohlenstoffdioxid</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>Carbon dioxide</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>Genfer Luftreinhaltekonvention (Convention on Long-Range Transboundary Air Pollution)</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>CH₄</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>Methan</t>
+          <t>Convention on Long-Range Transboundary Air Pollution (Genfer Luftreinhaltekonvention)</t>
         </is>
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>Methane</t>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>CFS</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>Ausschuss für die Welternährungssicherheit der Vereinten Nationen (Committee on World Food Security)</t>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>Committee on World Food Security</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>CeVal</t>
+          <t>CFS</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation</t>
+          <t>Committee on World Food Security (Ausschuss für die Welternährungssicherheit der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Committee on World Food Security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>CeVal</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>Kabelfernsehen</t>
+          <t>Centrum für Evaluation</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t>Center for Evaluation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Cable Television (Kabelfernsehen)</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>Bruttonationaleinkommen</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -3053,92 +3053,92 @@
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t/>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>BMUV</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Federal Environment and Consumer Protection Ministry</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>BMIs</t>
+          <t>BMUV</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
@@ -3155,406 +3155,440 @@
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>BMFSFJ</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>BMF</t>
+          <t>BMFSFJ</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>BMF</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>BMDV</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>Bundesministeriums für Digitales und Verkehr</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>BMDV</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="C164" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>BKA</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>BKA</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>BGleiG</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>Bundesgleichstellungsgesetz</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t>Federal Equality Act</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>BGleiG</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundesgleichstellungsgesetz</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Equality Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>BeschA</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>Beschaffungsamt</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t>Procurement Office</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>BeschA</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Beschaffungsamt</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Procurement Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>BBSR</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>The Federal Office for Building and Regional Planning</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>BBSR</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>AGEB</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t>Energy Balance Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>before noon (ante meridiem)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t>Auswärtigen Amt</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>a.m.</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t/>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Before noon (ante meridiem)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>µm</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Mikrometer</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>Micrograms</t>
+          <t>Micrometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
+          <t>µg/m³</t>
+        </is>
+      </c>
+      <c r="B183" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm pro Kubikmeter</t>
+        </is>
+      </c>
+      <c r="C183" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms per cubic metre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t>µg</t>
+        </is>
+      </c>
+      <c r="B184" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm</t>
+        </is>
+      </c>
+      <c r="C184" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="4" t="inlineStr">
+        <is>
           <t>§</t>
         </is>
       </c>
-      <c r="B183" s="4" t="inlineStr">
+      <c r="B185" s="4" t="inlineStr">
         <is>
           <t>Paragraf</t>
         </is>
       </c>
-      <c r="C183" s="4" t="inlineStr">
+      <c r="C185" s="4" t="inlineStr">
         <is>
           <t>Paragraph</t>
         </is>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -818,7 +818,7 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>technical cooperation</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Societas Europaea</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberflächengewässerverordnung</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>financial cooperation</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European System of Accounts</t>
         </is>
       </c>
     </row>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -1709,7 +1709,7 @@
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>LQ-LR</t>
+          <t>LQ-RL</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3053,92 +3053,92 @@
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>Bruttonationaleinkommen</t>
+          <t/>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>BMUV</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>BMUV</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>BMIs</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
@@ -3155,335 +3155,335 @@
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>BMFSFJ</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>BMFSFJ</t>
+          <t>BMF</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>BMF</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>BMDV</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>BMDV</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C164" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BKA</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>BKA</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>BGleiG</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Bundesgleichstellungsgesetz</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Equality Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>BGleiG</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>Bundesgleichstellungsgesetz</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t>Federal Equality Act</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>BeschA</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Beschaffungsamt</t>
         </is>
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Procurement Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>BeschA</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>Beschaffungsamt</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>Procurement Office</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>BBSR</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>BBSR</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>AGEB</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Energy Balance Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Auswärtigen Amt</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -3495,100 +3495,83 @@
     <row outlineLevel="0" r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>a.m.</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>Auswärtigen Amt</t>
+          <t/>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Before noon (ante meridiem)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>µm</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mikrometer</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>Before noon (ante meridiem)</t>
+          <t>Micrometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>µg/m³</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t>Mikrogramm pro Kubikmeter</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t>Micrograms per cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>µg</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Mikrogramm</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Micrograms</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>§</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Paragraf</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
-        <is>
-          <t>Micrograms</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="185">
-      <c r="A185" s="4" t="inlineStr">
-        <is>
-          <t>§</t>
-        </is>
-      </c>
-      <c r="B185" s="4" t="inlineStr">
-        <is>
-          <t>Paragraf</t>
-        </is>
-      </c>
-      <c r="C185" s="4" t="inlineStr">
         <is>
           <t>Paragraph</t>
         </is>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -677,7 +677,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>United Nations Convention to Combat Desertification (Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung)</t>
+          <t>United Nations Convention to Combat Desertification (Übereinkommen der Vereinten Nationen zur Bekämpfung der Wüstenbildung)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -1114,24 +1114,24 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>PM₂.₅</t>
+          <t>PPR</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
+          <t>Pandemieprävention und ‑reaktion</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>PM₂,₅</t>
+          <t>PM₂.₅</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1148,41 +1148,41 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>PM₁₀</t>
+          <t>PM₂,₅</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
+          <t>Feinstaub (Durchmesser kleiner 2,5 Mikrometer)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
+          <t>Particulate matter (diameter smaller than 2.5 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>PM₀.₁</t>
+          <t>PM₁₀</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
+          <t>Feinstaub (Durchmesser kleiner 10 Mikrometer)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
+          <t>Particulate matter (diameter smaller than 10 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>PM₀,₁</t>
+          <t>PM₀.₁</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1199,75 +1199,75 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Pkw</t>
+          <t>PM₀,₁</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Personenkraftwagen</t>
+          <t>Feinstaub (Durchmesser kleiner 0,1 Mikrometer)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Particulate matter (diameter smaller than 0.1 micrometers)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>PKS</t>
+          <t>Pkw</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Polizeiliche Kriminalstatistik</t>
+          <t>Personenkraftwagen</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Police Crime Statistics</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>PINETI</t>
+          <t>PKS</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t>Polizeiliche Kriminalstatistik</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Pollutant INput and EcosysTem Impact</t>
+          <t>Police Crime Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>PINETI</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Doctor of Philosophy</t>
+          <t>Pollutant INput and EcosysTem Impact</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>PFCs</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -1277,150 +1277,150 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Perfluorocarbons</t>
+          <t>Doctor of Philosophy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>P97</t>
+          <t>PFCs</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>97. Perzentil</t>
+          <t/>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>97th percentile</t>
+          <t>Perfluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>P97</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>90. Perzentil</t>
+          <t>97. Perzentil</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>90th percentile</t>
+          <t>97th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>OGewV</t>
+          <t>P90</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Oberflächengewässerverordnung</t>
+          <t>90. Perzentil</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Oberflächengewässerverordnung</t>
+          <t>90th percentile</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>OGewV</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development (Organisation für wirtschaftliche Zusammenarbeit und Entwicklung)</t>
+          <t>Oberflächengewässerverordnung</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Oberflächengewässerverordnung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>ODA</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance (Öffentliche Entwicklungsausgaben)</t>
+          <t>Organisation for Economic Co-operation and Development (Organisation für wirtschaftliche Zusammenarbeit und Entwicklung)</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Nr.</t>
+          <t>ODA</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Nummer</t>
+          <t>Official development assistance (Öffentliche Entwicklungsausgaben)</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Official development assistance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffoxid</t>
+          <t>Nummer</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen oxides</t>
+          <t>Number</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>NMVOCs</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds (Flüchtige organische Verbindungen ohne Methan)</t>
+          <t>Stickstoffoxid</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Non-methane volatile organic compounds</t>
+          <t>Nitrogen oxides</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>NMVOCs</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -1430,138 +1430,138 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>non-methane volatile organic compounds</t>
+          <t>Non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Ammoniak</t>
+          <t>Non-methane volatile organic compounds (Flüchtige organische Verbindungen ohne Methan)</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>non-methane volatile organic compounds</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>NF₃</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Stickstofftrifluorid</t>
+          <t>Ammoniak</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen trifluoride</t>
+          <t>Ammonia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>NF₃</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings Directive (Richtlinie über nationale Emissionshöchstmengen)</t>
+          <t>Stickstofftrifluorid</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>National Emission Ceilings</t>
+          <t>Nitrogen trifluoride</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>N₂O</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Lachgas</t>
+          <t>National Emission Ceilings Directive (Richtlinie über nationale Emissionshöchstmengen)</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Nitrous oxide</t>
+          <t>National Emission Ceilings</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>N₂O</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Stickstoff</t>
+          <t>Lachgas</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>Nitrous oxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>MSY</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield (Höchstmöglicher Dauerertrag)</t>
+          <t>Stickstoff</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Maximum Sustainable Yield</t>
+          <t>Nitrogen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>MSRL</t>
+          <t>MSY</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>EG-Meeresstrategie-Rahmenrichtlinie</t>
+          <t>Maximum Sustainable Yield (Höchstmöglicher Dauerertrag)</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Maximum Sustainable Yield</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Mrd.</t>
+          <t>MSRL</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Milliarde</t>
+          <t>EG-Meeresstrategie-Rahmenrichtlinie</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
@@ -1573,12 +1573,12 @@
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Mill.</t>
+          <t>Mrd.</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Millionen</t>
+          <t>Milliarde</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
@@ -1590,58 +1590,58 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>Mill.</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Millionen</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Milligramm</t>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Miligrams</t>
+          <t>Miligrams per litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Mbps</t>
+          <t>mg</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Megabit pro Sekunde</t>
+          <t>Milligramm</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Megabit per second</t>
+          <t>Miligrams</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Mbit/s</t>
+          <t>Mbps</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
@@ -1658,92 +1658,92 @@
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>Mbit/s</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Kubikmeter</t>
+          <t>Megabit pro Sekunde</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Cubic metre</t>
+          <t>Megabit per second</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Quadratmeter</t>
+          <t>Kubikmeter</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Square meter</t>
+          <t>Cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>LULUCF</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Land Use, Land-Use Change and Forestry (Landnutzung, Landnutzungsänderungen und Forstwirtschaft)</t>
+          <t>Quadratmeter</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Land use, land-use change and forestry</t>
+          <t>Square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>LQ-RL</t>
+          <t>LULUCF</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Luftqualitäts-Richtlinie</t>
+          <t>Land Use, Land-Use Change and Forestry (Landnutzung, Landnutzungsänderungen und Forstwirtschaft)</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>LDCs</t>
+          <t>LQ-RL</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries (Am wenigsten entwickelte Länder)</t>
+          <t>Luftqualitäts-Richtlinie</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Least developed countries</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>LDC</t>
+          <t>LDCs</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -1760,1818 +1760,1903 @@
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>LAWA</t>
+          <t>LDC</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
+          <t>Least developed countries (Am wenigsten entwickelte Länder)</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Least developed countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>LAWA</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Liter</t>
+          <t>Bund/Länder-Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Litre</t>
+          <t>German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>KSG</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Bundes-Klimaschutzgesetz</t>
+          <t>Liter</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Litre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>KNB</t>
+          <t>KSG</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Bundes-Klimaschutzgesetz</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>km²</t>
+          <t>KNB</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Quadratkilometer</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Square kilometer</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>KiGGS</t>
+          <t>km²</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
+          <t>Quadratkilometer</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Study on the health of children and adolescents in Germany</t>
+          <t>Square kilometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>kg/m²</t>
+          <t>KiGGS</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Quadratmeter</t>
+          <t>Studie zur Gesundheit von Kindern und Jugendlichen in Deutschland</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per square meter</t>
+          <t>Study on the health of children and adolescents in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>kg/ha</t>
+          <t>kg/m²</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>Kilogramm pro Quadratmeter</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Kilogram per square meter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg/ha</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Kilogram</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>Kfz</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrzeug</t>
+          <t>Kilogramm</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kilogram</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>KfW</t>
+          <t>Kfz</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kraftfahrzeug</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Reconstruction Loan Corporation</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>JRC</t>
+          <t>KfW</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Joint Research Centre (Gemeinsame Forschungsstelle)</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Joint Research Centre</t>
+          <t>Reconstruction Loan Corporation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>ISCO</t>
+          <t>JRC</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations (Internationale Standardklassifikation der Berufe)</t>
+          <t>Joint Research Centre (Gemeinsame Forschungsstelle)</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Occupations</t>
+          <t>Joint Research Centre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>ISCED</t>
+          <t>ISO</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education (Internationale Standardklassifikation des Bildungswesens)</t>
+          <t>Internationale Organisation für Normung</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>International Standard Classification of Education</t>
+          <t>International Organization for Standardization</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>IHK</t>
+          <t>ISCO</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Industrie- und Handelskammer</t>
+          <t>International Standard Classification of Occupations (Internationale Standardklassifikation der Berufe)</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>International Standard Classification of Occupations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>ISCED</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>International Standard Classification of Education (Internationale Standardklassifikation des Bildungswesens)</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>International Standard Classification of Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>ICES</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>International Council for the Exploration of the Sea (Internationaler Rat für Meeresforschung)</t>
+          <t>Immediate Outcomes</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>International Council for the Exploration of the Sea</t>
+          <t>Immediate Outcomes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>IHK</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>that is to say (id est)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>H-FKW/HFC</t>
+          <t>ifeu</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Hydrofluorocarbons</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>HFCs</t>
+          <t>ICES</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
+          <t>International Council for the Exploration of the Sea (Internationaler Rat für Meeresforschung)</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Hydrofluorocarbons</t>
+          <t>International Council for the Exploration of the Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Hektar</t>
+          <t/>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>Hectare</t>
+          <t>that is to say (id est)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>GPG</t>
+          <t>H-FKW/HFC</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap (Geschlechtsspezifischer Verdienstabstand)</t>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>Hydrofluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>GNI</t>
+          <t>HFCs</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Teilhalogenierte Fluorkohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>Gross national income</t>
+          <t>Hydrofluorocarbons</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>GmbH</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft mit beschränkter Haftung</t>
+          <t>Hektar</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>Company with limited liability</t>
+          <t>Hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>GleiStatV</t>
+          <t>GPG</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellungsstatistikverordnung</t>
+          <t>Gender Pay Gap (Geschlechtsspezifischer Verdienstabstand)</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>GNI</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+          <t/>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>German Agency for International Cooperation</t>
+          <t>Gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>gGmbH</t>
+          <t>GmbH</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Gemeinnützige Gesellschaft mit beschränkter Haftung</t>
+          <t>Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Non-profit limited liability company</t>
+          <t>Company with limited liability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>GleiStatV</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Grundgesetz für die Bundesrepublik Deutschland</t>
+          <t>Gleichstellungsstatistikverordnung</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Basic Law for the Federal Republic of Germany</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>GfK</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Consumer research institute</t>
+          <t>German Agency for International Cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>GHSI</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>GCF</t>
+          <t>gGmbH</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Green Climate Fund (Grüner Klimafonds)</t>
+          <t>Gemeinnützige Gesellschaft mit beschränkter Haftung</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>Green Climate Fund</t>
+          <t>Non-profit limited liability company</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>FZ</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Finanzielle Zusammenarbeit</t>
+          <t>Grundgesetz für die Bundesrepublik Deutschland</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>financial cooperation</t>
+          <t>Basic Law for the Federal Republic of Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>FüPoG</t>
+          <t>GfK</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Führungspositionen-Gesetz</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>Führungspositionen-Gesetz</t>
+          <t>Consumer research institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t/>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>GCF</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Fibre-to-the-Home (Glasfaser bis zum Gebäude/Glasfaser bis in die Wohnung)</t>
+          <t>Green Climate Fund (Grüner Klimafonds)</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Fibre-to-the-Home</t>
+          <t>Green Climate Fund</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>FZ</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Finanzielle Zusammenarbeit</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>Perfluorcarbone</t>
+          <t>financial cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>FüPoG</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization of the United Nations (Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen)</t>
+          <t>Fibre-to-the-Building/Fibre-to-the-Home (Glasfaser bis zum Gebäude/Glasfaser bis in die Wohnung)</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization of the United Nations</t>
+          <t>Fibre-to-the-Building/Fibre-to-the-Home</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>EZB</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Perfluorcarbone</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>EVK</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauchskennzeichnung</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>energy consumption labelling</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>EU-Statistics on Income and Living Conditions (Statistik über Einkommen und Lebensbedingungen)</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>EU-Statistics on Income and Living Conditions</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>European Statistical Office (Statistisches Amt der Europäischen Union)</t>
+          <t>Food and Agriculture Organization of the United Nations (Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>European Statistical Office</t>
+          <t>Food and Agriculture Organization of the United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>EZB</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>EZ</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>EU energy consumption labelling</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>EVK</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>EU-Statistics on Income and Living Conditions (Statistik über Einkommen und Lebensbedingungen)</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>EU-Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten (ohne das Vereinigte Königreich)</t>
+          <t>European Statistical Office (Statistisches Amt der Europäischen Union)</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states (without United Kingdom)</t>
+          <t>European Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>EU energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>European System of Accounts</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme (Umweltmanagementsystem)</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten (ohne das Vereinigte Königreich)</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>European Union consisting of 27 member states (without United Kingdom)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Warenklassifikation der Ernährungs- und der Gewerblichen Wirtschaft in der Außenhandelsstatistik</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>Classification of goods in the food and industrial economy in Foreign Trade Statistics</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>European System of Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>ECB</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank (Europäische Zentralbank)</t>
+          <t/>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>zum Beispiel</t>
+          <t>Eco-Management and Audit Scheme (Umweltmanagementsystem)</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Nachhaltigkeitsstrategie</t>
+          <t>Warenklassifikation der Ernährungs- und der Gewerblichen Wirtschaft in der Außenhandelsstatistik</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>German Susatinability Strategy</t>
+          <t>Classification of goods in the food and industrial economy in Foreign Trade Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>DIW</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>DIHK</t>
+          <t>ECB</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>European Central Bank (Europäische Zentralbank)</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>German Chamber of Commerce and Industry</t>
+          <t>European Central Bank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>zum Beispiel</t>
         </is>
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>German Investment and Development Corporation</t>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Deutsche Nachhaltigkeitsstrategie</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library</t>
+          <t>German Susatinability Strategy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>DIW</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee (Richtlinie des Entwicklungsausschusses)</t>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
+          <t>DIHK</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Industrie- und Handelskammer</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>German Chamber of Commerce and Industry</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>German Investment and Development Corporation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>DDB</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>German Digital Library</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>Dachverband Deutscher Avifaunisten</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee (Richtlinie des Entwicklungsausschusses)</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
           <t>CRS</t>
         </is>
       </c>
-      <c r="B144" s="4" t="inlineStr">
+      <c r="B149" s="4" t="inlineStr">
         <is>
           <t>Creditor Reporting System (Gläubigermeldesystem)</t>
         </is>
       </c>
-      <c r="C144" s="4" t="inlineStr">
+      <c r="C149" s="4" t="inlineStr">
         <is>
           <t>
 Creditor Reporting System</t>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="145">
-      <c r="A145" s="4" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="B145" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index (Korruptionswahrnehmungsindex)</t>
-        </is>
-      </c>
-      <c r="C145" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="146">
-      <c r="A146" s="4" t="inlineStr">
-        <is>
-          <t>COVID-19</t>
-        </is>
-      </c>
-      <c r="B146" s="4" t="inlineStr">
-        <is>
-          <t>Coronavirus SARS-CoV-2</t>
-        </is>
-      </c>
-      <c r="C146" s="4" t="inlineStr">
-        <is>
-          <t>Coronavirus SARS-CoV-2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="147">
-      <c r="A147" s="4" t="inlineStr">
-        <is>
-          <t>CO₂</t>
-        </is>
-      </c>
-      <c r="B147" s="4" t="inlineStr">
-        <is>
-          <t>Kohlenstoffdioxid</t>
-        </is>
-      </c>
-      <c r="C147" s="4" t="inlineStr">
-        <is>
-          <t>Carbon dioxide</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="148">
-      <c r="A148" s="4" t="inlineStr">
-        <is>
-          <t>CLRTAP</t>
-        </is>
-      </c>
-      <c r="B148" s="4" t="inlineStr">
-        <is>
-          <t>Convention on Long-Range Transboundary Air Pollution (Genfer Luftreinhaltekonvention)</t>
-        </is>
-      </c>
-      <c r="C148" s="4" t="inlineStr">
-        <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="149">
-      <c r="A149" s="4" t="inlineStr">
-        <is>
-          <t>CH₄</t>
-        </is>
-      </c>
-      <c r="B149" s="4" t="inlineStr">
-        <is>
-          <t>Methan</t>
-        </is>
-      </c>
-      <c r="C149" s="4" t="inlineStr">
-        <is>
-          <t>Methane</t>
-        </is>
-      </c>
-    </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>CFS</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>Committee on World Food Security (Ausschuss für die Welternährungssicherheit der Vereinten Nationen)</t>
+          <t>Corruption Perception Index (Korruptionswahrnehmungsindex)</t>
         </is>
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>Committee on World Food Security</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>CeVal</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>Center for Evaluation</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>Cable Television (Kabelfernsehen)</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Convention on Long-Range Transboundary Air Pollution (Genfer Luftreinhaltekonvention)</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>CFS</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Committee on World Food Security (Ausschuss für die Welternährungssicherheit der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Committee on World Food Security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>CeVal</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>Centrum für Evaluation</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t>Center for Evaluation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>BMUV</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
+          <t>Cable Television (Kabelfernsehen)</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>BMIs</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t/>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>BMFSFJ</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>BMF</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>BMUV</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>BMDV</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C164" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BMFSFJ</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>BKA</t>
+          <t>BMF</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>BGleiG</t>
+          <t>BMDV</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>Bundesgleichstellungsgesetz</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t>Federal Equality Act</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>BeschA</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>Beschaffungsamt</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t>Procurement Office</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>BKA</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>BBSR</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>BGleiG</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Bundesgleichstellungsgesetz</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Federal Equality Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>BeschA</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Beschaffungsamt</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Procurement Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>BBSR</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>Auswärtigen Amt</t>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>Before noon (ante meridiem)</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>AGEB</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t>Energy Balance Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>Micrograms</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="B184" s="4" t="inlineStr">
+        <is>
+          <t>Auswärtigen Amt</t>
+        </is>
+      </c>
+      <c r="C184" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="4" t="inlineStr">
+        <is>
+          <t>a.m.</t>
+        </is>
+      </c>
+      <c r="B185" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C185" s="4" t="inlineStr">
+        <is>
+          <t>Before noon (ante meridiem)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="4" t="inlineStr">
+        <is>
+          <t>µm</t>
+        </is>
+      </c>
+      <c r="B186" s="4" t="inlineStr">
+        <is>
+          <t>Mikrometer</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>Micrometer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="4" t="inlineStr">
+        <is>
+          <t>µg/m³</t>
+        </is>
+      </c>
+      <c r="B187" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm pro Kubikmeter</t>
+        </is>
+      </c>
+      <c r="C187" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms per cubic metre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="4" t="inlineStr">
+        <is>
+          <t>µg</t>
+        </is>
+      </c>
+      <c r="B188" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm</t>
+        </is>
+      </c>
+      <c r="C188" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="4" t="inlineStr">
+        <is>
           <t>§</t>
         </is>
       </c>
-      <c r="B184" s="4" t="inlineStr">
+      <c r="B189" s="4" t="inlineStr">
         <is>
           <t>Paragraf</t>
         </is>
       </c>
-      <c r="C184" s="4" t="inlineStr">
+      <c r="C189" s="4" t="inlineStr">
         <is>
           <t>Paragraph</t>
         </is>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2474,46 +2474,46 @@
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>FATF</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization of the United Nations (Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen)</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization of the United Nations</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>EZB</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Food and Agriculture Organization of the United Nations (Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Food and Agriculture Organization of the United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>EZ</t>
+          <t>EZB</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
@@ -2525,705 +2525,705 @@
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>EVK</t>
+          <t>EZ</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauchskennzeichnung</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>energy consumption labelling</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>EVK</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>EU-Statistics on Income and Living Conditions (Statistik über Einkommen und Lebensbedingungen)</t>
+          <t>Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>EU-Statistics on Income and Living Conditions</t>
+          <t>energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>European Statistical Office (Statistisches Amt der Europäischen Union)</t>
+          <t>EU-Statistics on Income and Living Conditions (Statistik über Einkommen und Lebensbedingungen)</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>European Statistical Office</t>
+          <t>EU-Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>European Statistical Office (Statistisches Amt der Europäischen Union)</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>European Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>EU energy consumption labelling</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EU energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten (ohne das Vereinigte Königreich)</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states (without United Kingdom)</t>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten (ohne das Vereinigte Königreich)</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>European Union consisting of 27 member states (without United Kingdom)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>European System of Accounts</t>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>European System of Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme (Umweltmanagementsystem)</t>
+          <t/>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>Warenklassifikation der Ernährungs- und der Gewerblichen Wirtschaft in der Außenhandelsstatistik</t>
+          <t>Eco-Management and Audit Scheme (Umweltmanagementsystem)</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>Classification of goods in the food and industrial economy in Foreign Trade Statistics</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>Warenklassifikation der Ernährungs- und der Gewerblichen Wirtschaft in der Außenhandelsstatistik</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>Classification of goods in the food and industrial economy in Foreign Trade Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>ECB</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank (Europäische Zentralbank)</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>ECB</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>zum Beispiel</t>
+          <t>European Central Bank (Europäische Zentralbank)</t>
         </is>
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>European Central Bank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Nachhaltigkeitsstrategie</t>
+          <t>zum Beispiel</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>German Susatinability Strategy</t>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>DIW</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Deutsche Nachhaltigkeitsstrategie</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German Susatinability Strategy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>DIW</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>DIHK</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>German Chamber of Commerce and Industry</t>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>DIHK</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>German Investment and Development Corporation</t>
+          <t>German Chamber of Commerce and Industry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library</t>
+          <t>German Investment and Development Corporation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>DDB</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee (Richtlinie des Entwicklungsausschusses)</t>
+          <t>Dachverband Deutscher Avifaunisten</t>
         </is>
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee (Richtlinie des Entwicklungsausschusses)</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>Development Assistance Committee</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="4" t="inlineStr">
+        <is>
           <t>CRS</t>
         </is>
       </c>
-      <c r="B149" s="4" t="inlineStr">
+      <c r="B150" s="4" t="inlineStr">
         <is>
           <t>Creditor Reporting System (Gläubigermeldesystem)</t>
         </is>
       </c>
-      <c r="C149" s="4" t="inlineStr">
+      <c r="C150" s="4" t="inlineStr">
         <is>
           <t>
 Creditor Reporting System</t>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="150">
-      <c r="A150" s="4" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="B150" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index (Korruptionswahrnehmungsindex)</t>
-        </is>
-      </c>
-      <c r="C150" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index</t>
-        </is>
-      </c>
-    </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Corruption Perception Index (Korruptionswahrnehmungsindex)</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>CO₂</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>Kohlenstoffdioxid</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>Carbon dioxide</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution (Genfer Luftreinhaltekonvention)</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>CH₄</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>Methan</t>
+          <t>Convention on Long-Range Transboundary Air Pollution (Genfer Luftreinhaltekonvention)</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Methane</t>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>CFS</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>Committee on World Food Security (Ausschuss für die Welternährungssicherheit der Vereinten Nationen)</t>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Committee on World Food Security</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>CeVal</t>
+          <t>CFS</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation</t>
+          <t>Committee on World Food Security (Ausschuss für die Welternährungssicherheit der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Center for Evaluation</t>
+          <t>Committee on World Food Security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>CeVal</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>Cable Television (Kabelfernsehen)</t>
+          <t>Centrum für Evaluation</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t>Center for Evaluation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t>Cable Television (Kabelfernsehen)</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t/>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>BMUV</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>BMIs</t>
+          <t>BMUV</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
@@ -3240,335 +3240,335 @@
     <row outlineLevel="0" r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>BMFSFJ</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>BMF</t>
+          <t>BMFSFJ</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>BMF</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>BMDV</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>BMDV</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>BKA</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>BKA</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>BGleiG</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>Bundesgleichstellungsgesetz</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>Federal Equality Act</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>BGleiG</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundesgleichstellungsgesetz</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Equality Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>BeschA</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Beschaffungsamt</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>Procurement Office</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>BeschA</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Beschaffungsamt</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Procurement Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>BBSR</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>BBSR</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>AGEB</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t>Energy Balance Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>Auswärtigen Amt</t>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
@@ -3580,83 +3580,100 @@
     <row outlineLevel="0" r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Auswärtigen Amt</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>Before noon (ante meridiem)</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>a.m.</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t/>
         </is>
       </c>
       <c r="C186" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t>Before noon (ante meridiem)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>µm</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Mikrometer</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Micrometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>µg/m³</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Mikrogramm pro Kubikmeter</t>
         </is>
       </c>
       <c r="C188" s="4" t="inlineStr">
         <is>
-          <t>Micrograms</t>
+          <t>Micrograms per cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
+          <t>µg</t>
+        </is>
+      </c>
+      <c r="B189" s="4" t="inlineStr">
+        <is>
+          <t>Mikrogramm</t>
+        </is>
+      </c>
+      <c r="C189" s="4" t="inlineStr">
+        <is>
+          <t>Micrograms</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="4" t="inlineStr">
+        <is>
           <t>§</t>
         </is>
       </c>
-      <c r="B189" s="4" t="inlineStr">
+      <c r="B190" s="4" t="inlineStr">
         <is>
           <t>Paragraf</t>
         </is>
       </c>
-      <c r="C189" s="4" t="inlineStr">
+      <c r="C190" s="4" t="inlineStr">
         <is>
           <t>Paragraph</t>
         </is>

--- a/Dic_Abkürzungen.xlsx
+++ b/Dic_Abkürzungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2287,233 +2287,233 @@
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>GfK</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Grundgesetz für die Bundesrepublik Deutschland</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>Basic Law for the Federal Republic of Germany</t>
+          <t>Consumer research institute</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>GfK</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t/>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>Consumer research institute</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>GCF</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Green Climate Fund (Grüner Klimafonds)</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Green Climate Fund</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>GCF</t>
+          <t>FZ</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Green Climate Fund (Grüner Klimafonds)</t>
+          <t>Finanzielle Zusammenarbeit</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>Green Climate Fund</t>
+          <t>financial cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>FZ</t>
+          <t>FüPoG</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Finanzielle Zusammenarbeit</t>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>financial cooperation</t>
+          <t>Führungspositionen-Gesetz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>FüPoG</t>
+          <t>FuE</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Führungspositionen-Gesetz</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Führungspositionen-Gesetz</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>FuE</t>
+          <t>FTTB/H</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Fibre-to-the-Building/Fibre-to-the-Home (Glasfaser bis zum Gebäude/Glasfaser bis in die Wohnung)</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Fibre-to-the-Building/Fibre-to-the-Home</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>FTTB/H</t>
+          <t>FKW/PFC</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Fibre-to-the-Home (Glasfaser bis zum Gebäude/Glasfaser bis in die Wohnung)</t>
+          <t>Perfluorierte Kohlenwasserstoffe</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Fibre-to-the-Home</t>
+          <t>Perfluorcarbone</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>FKW/PFC</t>
+          <t>FidAR</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Perfluorierte Kohlenwasserstoffe</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>Perfluorcarbone</t>
+          <t>Frauen in die Aufsichtsräte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>FidAR</t>
+          <t>FCPF</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte</t>
+          <t>Forest Carbon Partnership Facility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>FCPF</t>
+          <t>FATF</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Forest Carbon Partnership Facility</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>FATF</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Food and Agriculture Organization of the United Nations (Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Food and Agriculture Organization of the United Nations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>EZB</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization of the United Nations (Ernährungs- und Landwirtschaftsorganisation der Vereinten Nationen)</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>Food and Agriculture Organization of the United Nations</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>EZB</t>
+          <t>EZ</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
@@ -2525,705 +2525,705 @@
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>EZ</t>
+          <t>EVK</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>EVK</t>
+          <t>EU-SILC</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauchskennzeichnung</t>
+          <t>EU-Statistics on Income and Living Conditions (Statistik über Einkommen und Lebensbedingungen)</t>
         </is>
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>energy consumption labelling</t>
+          <t>EU-Statistics on Income and Living Conditions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>EU-SILC</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>EU-Statistics on Income and Living Conditions (Statistik über Einkommen und Lebensbedingungen)</t>
+          <t>European Statistical Office (Statistisches Amt der Europäischen Union)</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>EU-Statistics on Income and Living Conditions</t>
+          <t>European Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>European Statistical Office (Statistisches Amt der Europäischen Union)</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>European Statistical Office</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>EU-EVK</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>EU-Energieverbrauchskennzeichnung</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>EU energy consumption labelling</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>EU-EVK</t>
+          <t>EUA</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>EU-Energieverbrauchskennzeichnung</t>
+          <t>Europäische Umweltagentur</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>EU energy consumption labelling</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Europäische Umweltagentur</t>
+          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>European Union consisting of 28 member states</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 28 Mitgliedsstaaten</t>
+          <t>Europäische Union mit 27 Mitgliedsstaaten (ohne das Vereinigte Königreich)</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 28 member states</t>
+          <t>European Union consisting of 27 member states (without United Kingdom)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union mit 27 Mitgliedsstaaten (ohne das Vereinigte Königreich)</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>European Union consisting of 27 member states (without United Kingdom)</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>etc.</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>und so weiter (et cetera)</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>and so on (et cetera)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>etc.</t>
+          <t>ESVG</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>und so weiter (et cetera)</t>
+          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>and so on (et cetera)</t>
+          <t>European System of Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>ESVG</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>Europäische System Volkswirtschaftlicher Gesamtrechnungen</t>
+          <t/>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>European System of Accounts</t>
+          <t>European System of National and Regional Accounts</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>EMAS</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Eco-Management and Audit Scheme (Umweltmanagementsystem)</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>European System of National and Regional Accounts</t>
+          <t>Eco-Management and Audit Scheme</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>EMAS</t>
+          <t>EGW</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme (Umweltmanagementsystem)</t>
+          <t>Warenklassifikation der Ernährungs- und der Gewerblichen Wirtschaft in der Außenhandelsstatistik</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>Eco-Management and Audit Scheme</t>
+          <t>Classification of goods in the food and industrial economy in Foreign Trade Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>EGW</t>
+          <t>EEG</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>Warenklassifikation der Ernährungs- und der Gewerblichen Wirtschaft in der Außenhandelsstatistik</t>
+          <t>Erneuerbare-Energien-Gesetz</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>Classification of goods in the food and industrial economy in Foreign Trade Statistics</t>
+          <t>Renewable Energy Sources Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>EEG</t>
+          <t>EEA</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare-Energien-Gesetz</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>Renewable Energy Sources Act</t>
+          <t>European Environment Agency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>EEA</t>
+          <t>ECB</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>European Central Bank (Europäische Zentralbank)</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>European Environment Agency</t>
+          <t>European Central Bank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>ECB</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank (Europäische Zentralbank)</t>
+          <t>zum Beispiel</t>
         </is>
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>for example (exempli gratia)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>zum Beispiel</t>
+          <t>Deutsche Nachhaltigkeitsstrategie</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>for example (exempli gratia)</t>
+          <t>German Susatinability Strategy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>DIW</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Nachhaltigkeitsstrategie</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>German Susatinability Strategy</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>DIW</t>
+          <t>DIN</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Deutsches Institut für Normung e.V.</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German Institute for Standardisation Registered Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>DIN</t>
+          <t>DIHK</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Normung e.V.</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Standardisation Registered Association</t>
+          <t>German Chamber of Commerce and Industry</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>DIHK</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>German Chamber of Commerce and Industry</t>
+          <t>German Investment and Development Corporation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>DDB</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Investitions- und Entwicklungsgesellschaft</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>German Investment and Development Corporation</t>
+          <t>German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>DDB</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Dachverband Deutscher Avifaunisten</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>German Digital Library</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>Dachverband Deutscher Avifaunisten</t>
+          <t>Development Assistance Committee (Richtlinie des Entwicklungsausschusses)</t>
         </is>
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Development Assistance Committee</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>CRS</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee (Richtlinie des Entwicklungsausschusses)</t>
+          <t>Creditor Reporting System (Gläubigermeldesystem)</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>Development Assistance Committee</t>
+          <t>
+Creditor Reporting System</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>Creditor Reporting System (Gläubigermeldesystem)</t>
+          <t>Corruption Perception Index (Korruptionswahrnehmungsindex)</t>
         </is>
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>
-Creditor Reporting System</t>
+          <t>Corruption Perception Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index (Korruptionswahrnehmungsindex)</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index</t>
+          <t>Coronavirus SARS-CoV-2</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>CO₂</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Kohlenstoffdioxid</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>Coronavirus SARS-CoV-2</t>
+          <t>Carbon dioxide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>CO₂</t>
+          <t>CLRTAP</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>Kohlenstoffdioxid</t>
+          <t>Convention on Long-Range Transboundary Air Pollution (Genfer Luftreinhaltekonvention)</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>Carbon dioxide</t>
+          <t>Convention on Long-Range Transboundary Air Pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>CLRTAP</t>
+          <t>CH₄</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution (Genfer Luftreinhaltekonvention)</t>
+          <t>Methan</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Convention on Long-Range Transboundary Air Pollution</t>
+          <t>Methane</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>CH₄</t>
+          <t>CFS</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>Methan</t>
+          <t>Committee on World Food Security (Ausschuss für die Welternährungssicherheit der Vereinten Nationen)</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Methane</t>
+          <t>Committee on World Food Security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>CFS</t>
+          <t>CeVal</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>Committee on World Food Security (Ausschuss für die Welternährungssicherheit der Vereinten Nationen)</t>
+          <t>Centrum für Evaluation</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Committee on World Food Security</t>
+          <t>Center for Evaluation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>CeVal</t>
+          <t>CATV</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation</t>
+          <t>Cable Television (Kabelfernsehen)</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Center for Evaluation</t>
+          <t>Cable television</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>CATV</t>
+          <t>bzw.</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>Cable Television (Kabelfernsehen)</t>
+          <t>beziehungsweise</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Cable television</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>bzw.</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>beziehungsweise</t>
+          <t/>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Billion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>BMZ</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Billion</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>BMZ</t>
+          <t>BMVI</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry of Transport and Digital Infrastructure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>BMVI</t>
+          <t>BMUV</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Verkehr und digitale Infrastruktur</t>
+          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Transport and Digital Infrastructure</t>
+          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>BMUV</t>
+          <t>BMIs</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection</t>
+          <t>Body Mass Index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>BMIs</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
@@ -3240,335 +3240,335 @@
     <row outlineLevel="0" r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>BMFSFJ</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>Body Mass Index</t>
+          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>BMFSFJ</t>
+          <t>BMF</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Family Affairs, Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>BMF</t>
+          <t>BMEL</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>BMEL</t>
+          <t>BMDV</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>BMDV</t>
+          <t>BLE</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Office for Agriculture and Food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>BLE</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>Bundesanstalt für Landwirtschaft und Ernährung</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Agriculture and Food</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BKA</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>BKA</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>BGleiG</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Bundesgleichstellungsgesetz</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal Equality Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>BGleiG</t>
+          <t>BfN</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Bundesgleichstellungsgesetz</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>Federal Equality Act</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>BfN</t>
+          <t>BeschA</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Beschaffungsamt</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Procurement Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>BeschA</t>
+          <t>BEEG</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Beschaffungsamt</t>
+          <t>Bundeselterngeld- und Elternzeitgesetz</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>Procurement Office</t>
+          <t>Federal Parental Allowance and Parental Leave Act</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>BEEG</t>
+          <t>BBSR</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Bundeselterngeld- und Elternzeitgesetz</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>Federal Parental Allowance and Parental Leave Act</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>BBSR</t>
+          <t>Art.</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>Art.</t>
+          <t>ALKIS</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Official land register information system</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>ALKIS</t>
+          <t>AGEE-Stat</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>Amtlichen Liegenschaftskataster-Informationssystem</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>Official land register information system</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>AGEE-Stat</t>
+          <t>AGEB</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Arbeitsgemeinschaft Energiebilanzen</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Energy Balance Association</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>AGEB</t>
+          <t>AGA</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Energiebilanzen</t>
+          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>Energy Balance Association</t>
+          <t>Childhood Obesity Federation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>AGA</t>
+          <t>Abs.</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter</t>
+          <t>Absatz</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>Childhood Obesity Federation</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>Abs.</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>Absatz</t>
+          <t>Auswärtigen Amt</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
@@ -3580,100 +3580,83 @@
     <row outlineLevel="0" r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>a.m.</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>Auswärtigen Amt</t>
+          <t/>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Before noon (ante meridiem)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>a.m.</t>
+          <t>µm</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mikrometer</t>
         </is>
       </c>
       <c r="C186" s="4" t="inlineStr">
         <is>
-          <t>Before noon (ante meridiem)</t>
+          <t>Micrometer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>µm</t>
+          <t>µg/m³</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>Mikrometer</t>
+          <t>Mikrogramm pro Kubikmeter</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
         <is>
-          <t>Micrometer</t>
+          <t>Micrograms per cubic metre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>µg/m³</t>
+          <t>µg</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm pro Kubikmeter</t>
+          <t>Mikrogramm</t>
         </is>
       </c>
       <c r="C188" s="4" t="inlineStr">
         <is>
-          <t>Micrograms per cubic metre</t>
+          <t>Micrograms</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>µg</t>
+          <t>§</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>Mikrogramm</t>
+          <t>Paragraf</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
-        <is>
-          <t>Micrograms</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="190">
-      <c r="A190" s="4" t="inlineStr">
-        <is>
-          <t>§</t>
-        </is>
-      </c>
-      <c r="B190" s="4" t="inlineStr">
-        <is>
-          <t>Paragraf</t>
-        </is>
-      </c>
-      <c r="C190" s="4" t="inlineStr">
         <is>
           <t>Paragraph</t>
         </is>
